--- a/SubRES_TMPL/SUBRES_21_TECHS_OTHER.xlsx
+++ b/SubRES_TMPL/SUBRES_21_TECHS_OTHER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\2-NewVeda\EU-TIMES\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewVEDA\Veda_models\EU_TIMES_Veda2.0\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9296D53-6068-4BC6-BD60-70B95F3A6FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F407C243-7F12-48B4-B37E-E7938A797348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="646" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" tabRatio="646" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUP_Fdstk" sheetId="13" r:id="rId1"/>
@@ -282,8 +282,44 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Amit Kanudia</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{4A8476D4-DF27-4DA2-9AD8-08FACE4562E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+24-12-2020
+this was an approx treatment of ind/ups CCS. Now done via SCO2 commodities
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="381">
   <si>
     <t>Sets</t>
   </si>
@@ -1421,26 +1457,32 @@
   <si>
     <t>HFO goes to inland navigation but also bunkers and that is to be excluded.</t>
   </si>
+  <si>
+    <t>DeACTFI_Process</t>
+  </si>
+  <si>
+    <t>DeACTFI_T</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="172" formatCode="General_)"/>
-    <numFmt numFmtId="173" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="174" formatCode="General_)"/>
+    <numFmt numFmtId="175" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1668,6 +1710,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="24">
@@ -2386,15 +2441,217 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="40" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="40" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2402,221 +2659,19 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="40" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="40" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2697,7 +2752,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2735,23 +2790,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
@@ -2761,13 +2816,13 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2788,20 +2843,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
@@ -2824,7 +2879,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2905,7 +2960,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="174" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -3667,7 +3722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3707,9 +3762,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="829" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="829"/>
@@ -3736,27 +3791,27 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="3" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="3" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="3" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="3" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="3" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="3" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="5" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="5" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="5" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="5" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="829" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="829" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="3" fillId="18" borderId="16" xfId="829" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="3" fillId="18" borderId="11" xfId="829" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="3" fillId="18" borderId="17" xfId="829" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="829" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="35" fillId="0" borderId="0" xfId="829" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="3" fillId="18" borderId="16" xfId="829" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="3" fillId="18" borderId="11" xfId="829" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="3" fillId="18" borderId="17" xfId="829" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8203,102 +8258,22 @@
       <c r="I32"/>
       <c r="AI32"/>
     </row>
-    <row r="33" spans="7:35">
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="AI33"/>
-    </row>
-    <row r="34" spans="7:35">
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="AI34"/>
-    </row>
-    <row r="35" spans="7:35">
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="AI35"/>
-    </row>
-    <row r="36" spans="7:35">
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="AI36"/>
-    </row>
-    <row r="37" spans="7:35">
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="AI37"/>
-    </row>
-    <row r="38" spans="7:35">
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="AI38"/>
-    </row>
-    <row r="39" spans="7:35">
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="AI39"/>
-    </row>
-    <row r="40" spans="7:35">
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="AI40"/>
-    </row>
-    <row r="41" spans="7:35">
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="AI41"/>
-    </row>
-    <row r="42" spans="7:35">
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="AI42"/>
-    </row>
-    <row r="43" spans="7:35">
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="AI43"/>
-    </row>
-    <row r="44" spans="7:35">
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="AI44"/>
-    </row>
-    <row r="45" spans="7:35">
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="AI45"/>
-    </row>
-    <row r="46" spans="7:35">
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="AI46"/>
-    </row>
-    <row r="47" spans="7:35">
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="AI47"/>
-    </row>
-    <row r="48" spans="7:35">
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="AI48"/>
-    </row>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
     <row r="49" spans="1:151">
       <c r="G49"/>
       <c r="H49"/>
@@ -8542,390 +8517,70 @@
       <c r="I64"/>
       <c r="AI64"/>
     </row>
-    <row r="65" spans="7:35">
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="AI65"/>
-    </row>
-    <row r="66" spans="7:35">
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="AI66"/>
-    </row>
-    <row r="67" spans="7:35">
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="AI67"/>
-    </row>
-    <row r="68" spans="7:35">
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="AI68"/>
-    </row>
-    <row r="69" spans="7:35">
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="AI69"/>
-    </row>
-    <row r="70" spans="7:35">
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="AI70"/>
-    </row>
-    <row r="71" spans="7:35">
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="AI71"/>
-    </row>
-    <row r="72" spans="7:35">
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="AI72"/>
-    </row>
-    <row r="73" spans="7:35">
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="AI73"/>
-    </row>
-    <row r="74" spans="7:35">
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="AI74"/>
-    </row>
-    <row r="75" spans="7:35">
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="AI75"/>
-    </row>
-    <row r="76" spans="7:35">
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="AI76"/>
-    </row>
-    <row r="77" spans="7:35">
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="AI77"/>
-    </row>
-    <row r="78" spans="7:35">
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="AI78"/>
-    </row>
-    <row r="79" spans="7:35">
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="AI79"/>
-    </row>
-    <row r="80" spans="7:35">
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="AI80"/>
-    </row>
-    <row r="81" spans="7:35">
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="AI81"/>
-    </row>
-    <row r="82" spans="7:35">
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="AI82"/>
-    </row>
-    <row r="83" spans="7:35">
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="AI83"/>
-    </row>
-    <row r="84" spans="7:35">
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="AI84"/>
-    </row>
-    <row r="85" spans="7:35">
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="AI85"/>
-    </row>
-    <row r="86" spans="7:35">
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="AI86"/>
-    </row>
-    <row r="87" spans="7:35">
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="AI87"/>
-    </row>
-    <row r="88" spans="7:35">
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="AI88"/>
-    </row>
-    <row r="89" spans="7:35">
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="AI89"/>
-    </row>
-    <row r="90" spans="7:35">
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="AI90"/>
-    </row>
-    <row r="91" spans="7:35">
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="AI91"/>
-    </row>
-    <row r="92" spans="7:35">
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="AI92"/>
-    </row>
-    <row r="93" spans="7:35">
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="AI93"/>
-    </row>
-    <row r="94" spans="7:35">
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="AI94"/>
-    </row>
-    <row r="95" spans="7:35">
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="AI95"/>
-    </row>
-    <row r="96" spans="7:35">
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="AI96"/>
-    </row>
-    <row r="97" spans="7:35">
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="AI97"/>
-    </row>
-    <row r="98" spans="7:35">
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="AI98"/>
-    </row>
-    <row r="99" spans="7:35">
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="AI99"/>
-    </row>
-    <row r="100" spans="7:35">
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="AI100"/>
-    </row>
-    <row r="101" spans="7:35">
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="AI101"/>
-    </row>
-    <row r="102" spans="7:35">
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="AI102"/>
-    </row>
-    <row r="103" spans="7:35">
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="AI103"/>
-    </row>
-    <row r="104" spans="7:35">
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="AI104"/>
-    </row>
-    <row r="105" spans="7:35">
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="AI105"/>
-    </row>
-    <row r="106" spans="7:35">
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="AI106"/>
-    </row>
-    <row r="107" spans="7:35">
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="AI107"/>
-    </row>
-    <row r="108" spans="7:35">
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="AI108"/>
-    </row>
-    <row r="109" spans="7:35">
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="AI109"/>
-    </row>
-    <row r="110" spans="7:35">
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="AI110"/>
-    </row>
-    <row r="111" spans="7:35">
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="AI111"/>
-    </row>
-    <row r="112" spans="7:35">
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="AI112"/>
-    </row>
-    <row r="113" spans="7:35">
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="AI113"/>
-    </row>
-    <row r="114" spans="7:35">
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="AI114"/>
-    </row>
-    <row r="115" spans="7:35">
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="AI115"/>
-    </row>
-    <row r="116" spans="7:35">
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="AI116"/>
-    </row>
-    <row r="117" spans="7:35">
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="AI117"/>
-    </row>
-    <row r="118" spans="7:35">
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="AI118"/>
-    </row>
-    <row r="119" spans="7:35">
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="AI119"/>
-    </row>
-    <row r="120" spans="7:35">
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="AI120"/>
-    </row>
-    <row r="121" spans="7:35">
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="AI121"/>
-    </row>
-    <row r="122" spans="7:35">
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="AI122"/>
-    </row>
-    <row r="123" spans="7:35">
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="AI123"/>
-    </row>
-    <row r="124" spans="7:35">
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="AI124"/>
-    </row>
-    <row r="125" spans="7:35">
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="AI125"/>
-    </row>
-    <row r="126" spans="7:35">
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="AI126"/>
-    </row>
-    <row r="127" spans="7:35">
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="AI127"/>
-    </row>
-    <row r="128" spans="7:35">
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="AI128"/>
-    </row>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
+    <row r="84" customFormat="1"/>
+    <row r="85" customFormat="1"/>
+    <row r="86" customFormat="1"/>
+    <row r="87" customFormat="1"/>
+    <row r="88" customFormat="1"/>
+    <row r="89" customFormat="1"/>
+    <row r="90" customFormat="1"/>
+    <row r="91" customFormat="1"/>
+    <row r="92" customFormat="1"/>
+    <row r="93" customFormat="1"/>
+    <row r="94" customFormat="1"/>
+    <row r="95" customFormat="1"/>
+    <row r="96" customFormat="1"/>
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" customFormat="1"/>
+    <row r="114" customFormat="1"/>
+    <row r="115" customFormat="1"/>
+    <row r="116" customFormat="1"/>
+    <row r="117" customFormat="1"/>
+    <row r="118" customFormat="1"/>
+    <row r="119" customFormat="1"/>
+    <row r="120" customFormat="1"/>
+    <row r="121" customFormat="1"/>
+    <row r="122" customFormat="1"/>
+    <row r="123" customFormat="1"/>
+    <row r="124" customFormat="1"/>
+    <row r="125" customFormat="1"/>
+    <row r="126" customFormat="1"/>
+    <row r="127" customFormat="1"/>
+    <row r="128" customFormat="1"/>
     <row r="129" spans="1:151">
       <c r="G129"/>
       <c r="H129"/>
@@ -9412,102 +9067,22 @@
       <c r="I160"/>
       <c r="AI160"/>
     </row>
-    <row r="161" spans="7:35">
-      <c r="G161"/>
-      <c r="H161"/>
-      <c r="I161"/>
-      <c r="AI161"/>
-    </row>
-    <row r="162" spans="7:35">
-      <c r="G162"/>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="AI162"/>
-    </row>
-    <row r="163" spans="7:35">
-      <c r="G163"/>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="AI163"/>
-    </row>
-    <row r="164" spans="7:35">
-      <c r="G164"/>
-      <c r="H164"/>
-      <c r="I164"/>
-      <c r="AI164"/>
-    </row>
-    <row r="165" spans="7:35">
-      <c r="G165"/>
-      <c r="H165"/>
-      <c r="I165"/>
-      <c r="AI165"/>
-    </row>
-    <row r="166" spans="7:35">
-      <c r="G166"/>
-      <c r="H166"/>
-      <c r="I166"/>
-      <c r="AI166"/>
-    </row>
-    <row r="167" spans="7:35">
-      <c r="G167"/>
-      <c r="H167"/>
-      <c r="I167"/>
-      <c r="AI167"/>
-    </row>
-    <row r="168" spans="7:35">
-      <c r="G168"/>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="AI168"/>
-    </row>
-    <row r="169" spans="7:35">
-      <c r="G169"/>
-      <c r="H169"/>
-      <c r="I169"/>
-      <c r="AI169"/>
-    </row>
-    <row r="170" spans="7:35">
-      <c r="G170"/>
-      <c r="H170"/>
-      <c r="I170"/>
-      <c r="AI170"/>
-    </row>
-    <row r="171" spans="7:35">
-      <c r="G171"/>
-      <c r="H171"/>
-      <c r="I171"/>
-      <c r="AI171"/>
-    </row>
-    <row r="172" spans="7:35">
-      <c r="G172"/>
-      <c r="H172"/>
-      <c r="I172"/>
-      <c r="AI172"/>
-    </row>
-    <row r="173" spans="7:35">
-      <c r="G173"/>
-      <c r="H173"/>
-      <c r="I173"/>
-      <c r="AI173"/>
-    </row>
-    <row r="174" spans="7:35">
-      <c r="G174"/>
-      <c r="H174"/>
-      <c r="I174"/>
-      <c r="AI174"/>
-    </row>
-    <row r="175" spans="7:35">
-      <c r="G175"/>
-      <c r="H175"/>
-      <c r="I175"/>
-      <c r="AI175"/>
-    </row>
-    <row r="176" spans="7:35">
-      <c r="G176"/>
-      <c r="H176"/>
-      <c r="I176"/>
-      <c r="AI176"/>
-    </row>
+    <row r="161" customFormat="1"/>
+    <row r="162" customFormat="1"/>
+    <row r="163" customFormat="1"/>
+    <row r="164" customFormat="1"/>
+    <row r="165" customFormat="1"/>
+    <row r="166" customFormat="1"/>
+    <row r="167" customFormat="1"/>
+    <row r="168" customFormat="1"/>
+    <row r="169" customFormat="1"/>
+    <row r="170" customFormat="1"/>
+    <row r="171" customFormat="1"/>
+    <row r="172" customFormat="1"/>
+    <row r="173" customFormat="1"/>
+    <row r="174" customFormat="1"/>
+    <row r="175" customFormat="1"/>
+    <row r="176" customFormat="1"/>
     <row r="177" spans="1:151">
       <c r="G177"/>
       <c r="H177"/>
@@ -15766,102 +15341,22 @@
       <c r="ET288"/>
       <c r="EU288"/>
     </row>
-    <row r="289" spans="7:35">
-      <c r="G289"/>
-      <c r="H289"/>
-      <c r="I289"/>
-      <c r="AI289"/>
-    </row>
-    <row r="290" spans="7:35">
-      <c r="G290"/>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="AI290"/>
-    </row>
-    <row r="291" spans="7:35">
-      <c r="G291"/>
-      <c r="H291"/>
-      <c r="I291"/>
-      <c r="AI291"/>
-    </row>
-    <row r="292" spans="7:35">
-      <c r="G292"/>
-      <c r="H292"/>
-      <c r="I292"/>
-      <c r="AI292"/>
-    </row>
-    <row r="293" spans="7:35">
-      <c r="G293"/>
-      <c r="H293"/>
-      <c r="I293"/>
-      <c r="AI293"/>
-    </row>
-    <row r="294" spans="7:35">
-      <c r="G294"/>
-      <c r="H294"/>
-      <c r="I294"/>
-      <c r="AI294"/>
-    </row>
-    <row r="295" spans="7:35">
-      <c r="G295"/>
-      <c r="H295"/>
-      <c r="I295"/>
-      <c r="AI295"/>
-    </row>
-    <row r="296" spans="7:35">
-      <c r="G296"/>
-      <c r="H296"/>
-      <c r="I296"/>
-      <c r="AI296"/>
-    </row>
-    <row r="297" spans="7:35">
-      <c r="G297"/>
-      <c r="H297"/>
-      <c r="I297"/>
-      <c r="AI297"/>
-    </row>
-    <row r="298" spans="7:35">
-      <c r="G298"/>
-      <c r="H298"/>
-      <c r="I298"/>
-      <c r="AI298"/>
-    </row>
-    <row r="299" spans="7:35">
-      <c r="G299"/>
-      <c r="H299"/>
-      <c r="I299"/>
-      <c r="AI299"/>
-    </row>
-    <row r="300" spans="7:35">
-      <c r="G300"/>
-      <c r="H300"/>
-      <c r="I300"/>
-      <c r="AI300"/>
-    </row>
-    <row r="301" spans="7:35">
-      <c r="G301"/>
-      <c r="H301"/>
-      <c r="I301"/>
-      <c r="AI301"/>
-    </row>
-    <row r="302" spans="7:35">
-      <c r="G302"/>
-      <c r="H302"/>
-      <c r="I302"/>
-      <c r="AI302"/>
-    </row>
-    <row r="303" spans="7:35">
-      <c r="G303"/>
-      <c r="H303"/>
-      <c r="I303"/>
-      <c r="AI303"/>
-    </row>
-    <row r="304" spans="7:35">
-      <c r="G304"/>
-      <c r="H304"/>
-      <c r="I304"/>
-      <c r="AI304"/>
-    </row>
+    <row r="289" customFormat="1"/>
+    <row r="290" customFormat="1"/>
+    <row r="291" customFormat="1"/>
+    <row r="292" customFormat="1"/>
+    <row r="293" customFormat="1"/>
+    <row r="294" customFormat="1"/>
+    <row r="295" customFormat="1"/>
+    <row r="296" customFormat="1"/>
+    <row r="297" customFormat="1"/>
+    <row r="298" customFormat="1"/>
+    <row r="299" customFormat="1"/>
+    <row r="300" customFormat="1"/>
+    <row r="301" customFormat="1"/>
+    <row r="302" customFormat="1"/>
+    <row r="303" customFormat="1"/>
+    <row r="304" customFormat="1"/>
     <row r="305" spans="1:151">
       <c r="G305"/>
       <c r="H305"/>
@@ -28621,102 +28116,22 @@
       <c r="I544"/>
       <c r="AI544"/>
     </row>
-    <row r="545" spans="7:35">
-      <c r="G545"/>
-      <c r="H545"/>
-      <c r="I545"/>
-      <c r="AI545"/>
-    </row>
-    <row r="546" spans="7:35">
-      <c r="G546"/>
-      <c r="H546"/>
-      <c r="I546"/>
-      <c r="AI546"/>
-    </row>
-    <row r="547" spans="7:35">
-      <c r="G547"/>
-      <c r="H547"/>
-      <c r="I547"/>
-      <c r="AI547"/>
-    </row>
-    <row r="548" spans="7:35">
-      <c r="G548"/>
-      <c r="H548"/>
-      <c r="I548"/>
-      <c r="AI548"/>
-    </row>
-    <row r="549" spans="7:35">
-      <c r="G549"/>
-      <c r="H549"/>
-      <c r="I549"/>
-      <c r="AI549"/>
-    </row>
-    <row r="550" spans="7:35">
-      <c r="G550"/>
-      <c r="H550"/>
-      <c r="I550"/>
-      <c r="AI550"/>
-    </row>
-    <row r="551" spans="7:35">
-      <c r="G551"/>
-      <c r="H551"/>
-      <c r="I551"/>
-      <c r="AI551"/>
-    </row>
-    <row r="552" spans="7:35">
-      <c r="G552"/>
-      <c r="H552"/>
-      <c r="I552"/>
-      <c r="AI552"/>
-    </row>
-    <row r="553" spans="7:35">
-      <c r="G553"/>
-      <c r="H553"/>
-      <c r="I553"/>
-      <c r="AI553"/>
-    </row>
-    <row r="554" spans="7:35">
-      <c r="G554"/>
-      <c r="H554"/>
-      <c r="I554"/>
-      <c r="AI554"/>
-    </row>
-    <row r="555" spans="7:35">
-      <c r="G555"/>
-      <c r="H555"/>
-      <c r="I555"/>
-      <c r="AI555"/>
-    </row>
-    <row r="556" spans="7:35">
-      <c r="G556"/>
-      <c r="H556"/>
-      <c r="I556"/>
-      <c r="AI556"/>
-    </row>
-    <row r="557" spans="7:35">
-      <c r="G557"/>
-      <c r="H557"/>
-      <c r="I557"/>
-      <c r="AI557"/>
-    </row>
-    <row r="558" spans="7:35">
-      <c r="G558"/>
-      <c r="H558"/>
-      <c r="I558"/>
-      <c r="AI558"/>
-    </row>
-    <row r="559" spans="7:35">
-      <c r="G559"/>
-      <c r="H559"/>
-      <c r="I559"/>
-      <c r="AI559"/>
-    </row>
-    <row r="560" spans="7:35">
-      <c r="G560"/>
-      <c r="H560"/>
-      <c r="I560"/>
-      <c r="AI560"/>
-    </row>
+    <row r="545" customFormat="1"/>
+    <row r="546" customFormat="1"/>
+    <row r="547" customFormat="1"/>
+    <row r="548" customFormat="1"/>
+    <row r="549" customFormat="1"/>
+    <row r="550" customFormat="1"/>
+    <row r="551" customFormat="1"/>
+    <row r="552" customFormat="1"/>
+    <row r="553" customFormat="1"/>
+    <row r="554" customFormat="1"/>
+    <row r="555" customFormat="1"/>
+    <row r="556" customFormat="1"/>
+    <row r="557" customFormat="1"/>
+    <row r="558" customFormat="1"/>
+    <row r="559" customFormat="1"/>
+    <row r="560" customFormat="1"/>
     <row r="561" spans="1:151">
       <c r="G561"/>
       <c r="H561"/>
@@ -28960,198 +28375,38 @@
       <c r="I576"/>
       <c r="AI576"/>
     </row>
-    <row r="577" spans="7:35">
-      <c r="G577"/>
-      <c r="H577"/>
-      <c r="I577"/>
-      <c r="AI577"/>
-    </row>
-    <row r="578" spans="7:35">
-      <c r="G578"/>
-      <c r="H578"/>
-      <c r="I578"/>
-      <c r="AI578"/>
-    </row>
-    <row r="579" spans="7:35">
-      <c r="G579"/>
-      <c r="H579"/>
-      <c r="I579"/>
-      <c r="AI579"/>
-    </row>
-    <row r="580" spans="7:35">
-      <c r="G580"/>
-      <c r="H580"/>
-      <c r="I580"/>
-      <c r="AI580"/>
-    </row>
-    <row r="581" spans="7:35">
-      <c r="G581"/>
-      <c r="H581"/>
-      <c r="I581"/>
-      <c r="AI581"/>
-    </row>
-    <row r="582" spans="7:35">
-      <c r="G582"/>
-      <c r="H582"/>
-      <c r="I582"/>
-      <c r="AI582"/>
-    </row>
-    <row r="583" spans="7:35">
-      <c r="G583"/>
-      <c r="H583"/>
-      <c r="I583"/>
-      <c r="AI583"/>
-    </row>
-    <row r="584" spans="7:35">
-      <c r="G584"/>
-      <c r="H584"/>
-      <c r="I584"/>
-      <c r="AI584"/>
-    </row>
-    <row r="585" spans="7:35">
-      <c r="G585"/>
-      <c r="H585"/>
-      <c r="I585"/>
-      <c r="AI585"/>
-    </row>
-    <row r="586" spans="7:35">
-      <c r="G586"/>
-      <c r="H586"/>
-      <c r="I586"/>
-      <c r="AI586"/>
-    </row>
-    <row r="587" spans="7:35">
-      <c r="G587"/>
-      <c r="H587"/>
-      <c r="I587"/>
-      <c r="AI587"/>
-    </row>
-    <row r="588" spans="7:35">
-      <c r="G588"/>
-      <c r="H588"/>
-      <c r="I588"/>
-      <c r="AI588"/>
-    </row>
-    <row r="589" spans="7:35">
-      <c r="G589"/>
-      <c r="H589"/>
-      <c r="I589"/>
-      <c r="AI589"/>
-    </row>
-    <row r="590" spans="7:35">
-      <c r="G590"/>
-      <c r="H590"/>
-      <c r="I590"/>
-      <c r="AI590"/>
-    </row>
-    <row r="591" spans="7:35">
-      <c r="G591"/>
-      <c r="H591"/>
-      <c r="I591"/>
-      <c r="AI591"/>
-    </row>
-    <row r="592" spans="7:35">
-      <c r="G592"/>
-      <c r="H592"/>
-      <c r="I592"/>
-      <c r="AI592"/>
-    </row>
-    <row r="593" spans="7:35">
-      <c r="G593"/>
-      <c r="H593"/>
-      <c r="I593"/>
-      <c r="AI593"/>
-    </row>
-    <row r="594" spans="7:35">
-      <c r="G594"/>
-      <c r="H594"/>
-      <c r="I594"/>
-      <c r="AI594"/>
-    </row>
-    <row r="595" spans="7:35">
-      <c r="G595"/>
-      <c r="H595"/>
-      <c r="I595"/>
-      <c r="AI595"/>
-    </row>
-    <row r="596" spans="7:35">
-      <c r="G596"/>
-      <c r="H596"/>
-      <c r="I596"/>
-      <c r="AI596"/>
-    </row>
-    <row r="597" spans="7:35">
-      <c r="G597"/>
-      <c r="H597"/>
-      <c r="I597"/>
-      <c r="AI597"/>
-    </row>
-    <row r="598" spans="7:35">
-      <c r="G598"/>
-      <c r="H598"/>
-      <c r="I598"/>
-      <c r="AI598"/>
-    </row>
-    <row r="599" spans="7:35">
-      <c r="G599"/>
-      <c r="H599"/>
-      <c r="I599"/>
-      <c r="AI599"/>
-    </row>
-    <row r="600" spans="7:35">
-      <c r="G600"/>
-      <c r="H600"/>
-      <c r="I600"/>
-      <c r="AI600"/>
-    </row>
-    <row r="601" spans="7:35">
-      <c r="G601"/>
-      <c r="H601"/>
-      <c r="I601"/>
-      <c r="AI601"/>
-    </row>
-    <row r="602" spans="7:35">
-      <c r="G602"/>
-      <c r="H602"/>
-      <c r="I602"/>
-      <c r="AI602"/>
-    </row>
-    <row r="603" spans="7:35">
-      <c r="G603"/>
-      <c r="H603"/>
-      <c r="I603"/>
-      <c r="AI603"/>
-    </row>
-    <row r="604" spans="7:35">
-      <c r="G604"/>
-      <c r="H604"/>
-      <c r="I604"/>
-      <c r="AI604"/>
-    </row>
-    <row r="605" spans="7:35">
-      <c r="G605"/>
-      <c r="H605"/>
-      <c r="I605"/>
-      <c r="AI605"/>
-    </row>
-    <row r="606" spans="7:35">
-      <c r="G606"/>
-      <c r="H606"/>
-      <c r="I606"/>
-      <c r="AI606"/>
-    </row>
-    <row r="607" spans="7:35">
-      <c r="G607"/>
-      <c r="H607"/>
-      <c r="I607"/>
-      <c r="AI607"/>
-    </row>
-    <row r="608" spans="7:35">
-      <c r="G608"/>
-      <c r="H608"/>
-      <c r="I608"/>
-      <c r="AI608"/>
-    </row>
+    <row r="577" customFormat="1"/>
+    <row r="578" customFormat="1"/>
+    <row r="579" customFormat="1"/>
+    <row r="580" customFormat="1"/>
+    <row r="581" customFormat="1"/>
+    <row r="582" customFormat="1"/>
+    <row r="583" customFormat="1"/>
+    <row r="584" customFormat="1"/>
+    <row r="585" customFormat="1"/>
+    <row r="586" customFormat="1"/>
+    <row r="587" customFormat="1"/>
+    <row r="588" customFormat="1"/>
+    <row r="589" customFormat="1"/>
+    <row r="590" customFormat="1"/>
+    <row r="591" customFormat="1"/>
+    <row r="592" customFormat="1"/>
+    <row r="593" customFormat="1"/>
+    <row r="594" customFormat="1"/>
+    <row r="595" customFormat="1"/>
+    <row r="596" customFormat="1"/>
+    <row r="597" customFormat="1"/>
+    <row r="598" customFormat="1"/>
+    <row r="599" customFormat="1"/>
+    <row r="600" customFormat="1"/>
+    <row r="601" customFormat="1"/>
+    <row r="602" customFormat="1"/>
+    <row r="603" customFormat="1"/>
+    <row r="604" customFormat="1"/>
+    <row r="605" customFormat="1"/>
+    <row r="606" customFormat="1"/>
+    <row r="607" customFormat="1"/>
+    <row r="608" customFormat="1"/>
     <row r="609" spans="1:151">
       <c r="G609"/>
       <c r="H609"/>
@@ -29395,198 +28650,38 @@
       <c r="I624"/>
       <c r="AI624"/>
     </row>
-    <row r="625" spans="7:35">
-      <c r="G625"/>
-      <c r="H625"/>
-      <c r="I625"/>
-      <c r="AI625"/>
-    </row>
-    <row r="626" spans="7:35">
-      <c r="G626"/>
-      <c r="H626"/>
-      <c r="I626"/>
-      <c r="AI626"/>
-    </row>
-    <row r="627" spans="7:35">
-      <c r="G627"/>
-      <c r="H627"/>
-      <c r="I627"/>
-      <c r="AI627"/>
-    </row>
-    <row r="628" spans="7:35">
-      <c r="G628"/>
-      <c r="H628"/>
-      <c r="I628"/>
-      <c r="AI628"/>
-    </row>
-    <row r="629" spans="7:35">
-      <c r="G629"/>
-      <c r="H629"/>
-      <c r="I629"/>
-      <c r="AI629"/>
-    </row>
-    <row r="630" spans="7:35">
-      <c r="G630"/>
-      <c r="H630"/>
-      <c r="I630"/>
-      <c r="AI630"/>
-    </row>
-    <row r="631" spans="7:35">
-      <c r="G631"/>
-      <c r="H631"/>
-      <c r="I631"/>
-      <c r="AI631"/>
-    </row>
-    <row r="632" spans="7:35">
-      <c r="G632"/>
-      <c r="H632"/>
-      <c r="I632"/>
-      <c r="AI632"/>
-    </row>
-    <row r="633" spans="7:35">
-      <c r="G633"/>
-      <c r="H633"/>
-      <c r="I633"/>
-      <c r="AI633"/>
-    </row>
-    <row r="634" spans="7:35">
-      <c r="G634"/>
-      <c r="H634"/>
-      <c r="I634"/>
-      <c r="AI634"/>
-    </row>
-    <row r="635" spans="7:35">
-      <c r="G635"/>
-      <c r="H635"/>
-      <c r="I635"/>
-      <c r="AI635"/>
-    </row>
-    <row r="636" spans="7:35">
-      <c r="G636"/>
-      <c r="H636"/>
-      <c r="I636"/>
-      <c r="AI636"/>
-    </row>
-    <row r="637" spans="7:35">
-      <c r="G637"/>
-      <c r="H637"/>
-      <c r="I637"/>
-      <c r="AI637"/>
-    </row>
-    <row r="638" spans="7:35">
-      <c r="G638"/>
-      <c r="H638"/>
-      <c r="I638"/>
-      <c r="AI638"/>
-    </row>
-    <row r="639" spans="7:35">
-      <c r="G639"/>
-      <c r="H639"/>
-      <c r="I639"/>
-      <c r="AI639"/>
-    </row>
-    <row r="640" spans="7:35">
-      <c r="G640"/>
-      <c r="H640"/>
-      <c r="I640"/>
-      <c r="AI640"/>
-    </row>
-    <row r="641" spans="7:35">
-      <c r="G641"/>
-      <c r="H641"/>
-      <c r="I641"/>
-      <c r="AI641"/>
-    </row>
-    <row r="642" spans="7:35">
-      <c r="G642"/>
-      <c r="H642"/>
-      <c r="I642"/>
-      <c r="AI642"/>
-    </row>
-    <row r="643" spans="7:35">
-      <c r="G643"/>
-      <c r="H643"/>
-      <c r="I643"/>
-      <c r="AI643"/>
-    </row>
-    <row r="644" spans="7:35">
-      <c r="G644"/>
-      <c r="H644"/>
-      <c r="I644"/>
-      <c r="AI644"/>
-    </row>
-    <row r="645" spans="7:35">
-      <c r="G645"/>
-      <c r="H645"/>
-      <c r="I645"/>
-      <c r="AI645"/>
-    </row>
-    <row r="646" spans="7:35">
-      <c r="G646"/>
-      <c r="H646"/>
-      <c r="I646"/>
-      <c r="AI646"/>
-    </row>
-    <row r="647" spans="7:35">
-      <c r="G647"/>
-      <c r="H647"/>
-      <c r="I647"/>
-      <c r="AI647"/>
-    </row>
-    <row r="648" spans="7:35">
-      <c r="G648"/>
-      <c r="H648"/>
-      <c r="I648"/>
-      <c r="AI648"/>
-    </row>
-    <row r="649" spans="7:35">
-      <c r="G649"/>
-      <c r="H649"/>
-      <c r="I649"/>
-      <c r="AI649"/>
-    </row>
-    <row r="650" spans="7:35">
-      <c r="G650"/>
-      <c r="H650"/>
-      <c r="I650"/>
-      <c r="AI650"/>
-    </row>
-    <row r="651" spans="7:35">
-      <c r="G651"/>
-      <c r="H651"/>
-      <c r="I651"/>
-      <c r="AI651"/>
-    </row>
-    <row r="652" spans="7:35">
-      <c r="G652"/>
-      <c r="H652"/>
-      <c r="I652"/>
-      <c r="AI652"/>
-    </row>
-    <row r="653" spans="7:35">
-      <c r="G653"/>
-      <c r="H653"/>
-      <c r="I653"/>
-      <c r="AI653"/>
-    </row>
-    <row r="654" spans="7:35">
-      <c r="G654"/>
-      <c r="H654"/>
-      <c r="I654"/>
-      <c r="AI654"/>
-    </row>
-    <row r="655" spans="7:35">
-      <c r="G655"/>
-      <c r="H655"/>
-      <c r="I655"/>
-      <c r="AI655"/>
-    </row>
-    <row r="656" spans="7:35">
-      <c r="G656"/>
-      <c r="H656"/>
-      <c r="I656"/>
-      <c r="AI656"/>
-    </row>
+    <row r="625" customFormat="1"/>
+    <row r="626" customFormat="1"/>
+    <row r="627" customFormat="1"/>
+    <row r="628" customFormat="1"/>
+    <row r="629" customFormat="1"/>
+    <row r="630" customFormat="1"/>
+    <row r="631" customFormat="1"/>
+    <row r="632" customFormat="1"/>
+    <row r="633" customFormat="1"/>
+    <row r="634" customFormat="1"/>
+    <row r="635" customFormat="1"/>
+    <row r="636" customFormat="1"/>
+    <row r="637" customFormat="1"/>
+    <row r="638" customFormat="1"/>
+    <row r="639" customFormat="1"/>
+    <row r="640" customFormat="1"/>
+    <row r="641" customFormat="1"/>
+    <row r="642" customFormat="1"/>
+    <row r="643" customFormat="1"/>
+    <row r="644" customFormat="1"/>
+    <row r="645" customFormat="1"/>
+    <row r="646" customFormat="1"/>
+    <row r="647" customFormat="1"/>
+    <row r="648" customFormat="1"/>
+    <row r="649" customFormat="1"/>
+    <row r="650" customFormat="1"/>
+    <row r="651" customFormat="1"/>
+    <row r="652" customFormat="1"/>
+    <row r="653" customFormat="1"/>
+    <row r="654" customFormat="1"/>
+    <row r="655" customFormat="1"/>
+    <row r="656" customFormat="1"/>
     <row r="657" spans="1:151">
       <c r="G657"/>
       <c r="H657"/>
@@ -29830,198 +28925,38 @@
       <c r="I672"/>
       <c r="AI672"/>
     </row>
-    <row r="673" spans="7:35">
-      <c r="G673"/>
-      <c r="H673"/>
-      <c r="I673"/>
-      <c r="AI673"/>
-    </row>
-    <row r="674" spans="7:35">
-      <c r="G674"/>
-      <c r="H674"/>
-      <c r="I674"/>
-      <c r="AI674"/>
-    </row>
-    <row r="675" spans="7:35">
-      <c r="G675"/>
-      <c r="H675"/>
-      <c r="I675"/>
-      <c r="AI675"/>
-    </row>
-    <row r="676" spans="7:35">
-      <c r="G676"/>
-      <c r="H676"/>
-      <c r="I676"/>
-      <c r="AI676"/>
-    </row>
-    <row r="677" spans="7:35">
-      <c r="G677"/>
-      <c r="H677"/>
-      <c r="I677"/>
-      <c r="AI677"/>
-    </row>
-    <row r="678" spans="7:35">
-      <c r="G678"/>
-      <c r="H678"/>
-      <c r="I678"/>
-      <c r="AI678"/>
-    </row>
-    <row r="679" spans="7:35">
-      <c r="G679"/>
-      <c r="H679"/>
-      <c r="I679"/>
-      <c r="AI679"/>
-    </row>
-    <row r="680" spans="7:35">
-      <c r="G680"/>
-      <c r="H680"/>
-      <c r="I680"/>
-      <c r="AI680"/>
-    </row>
-    <row r="681" spans="7:35">
-      <c r="G681"/>
-      <c r="H681"/>
-      <c r="I681"/>
-      <c r="AI681"/>
-    </row>
-    <row r="682" spans="7:35">
-      <c r="G682"/>
-      <c r="H682"/>
-      <c r="I682"/>
-      <c r="AI682"/>
-    </row>
-    <row r="683" spans="7:35">
-      <c r="G683"/>
-      <c r="H683"/>
-      <c r="I683"/>
-      <c r="AI683"/>
-    </row>
-    <row r="684" spans="7:35">
-      <c r="G684"/>
-      <c r="H684"/>
-      <c r="I684"/>
-      <c r="AI684"/>
-    </row>
-    <row r="685" spans="7:35">
-      <c r="G685"/>
-      <c r="H685"/>
-      <c r="I685"/>
-      <c r="AI685"/>
-    </row>
-    <row r="686" spans="7:35">
-      <c r="G686"/>
-      <c r="H686"/>
-      <c r="I686"/>
-      <c r="AI686"/>
-    </row>
-    <row r="687" spans="7:35">
-      <c r="G687"/>
-      <c r="H687"/>
-      <c r="I687"/>
-      <c r="AI687"/>
-    </row>
-    <row r="688" spans="7:35">
-      <c r="G688"/>
-      <c r="H688"/>
-      <c r="I688"/>
-      <c r="AI688"/>
-    </row>
-    <row r="689" spans="7:35">
-      <c r="G689"/>
-      <c r="H689"/>
-      <c r="I689"/>
-      <c r="AI689"/>
-    </row>
-    <row r="690" spans="7:35">
-      <c r="G690"/>
-      <c r="H690"/>
-      <c r="I690"/>
-      <c r="AI690"/>
-    </row>
-    <row r="691" spans="7:35">
-      <c r="G691"/>
-      <c r="H691"/>
-      <c r="I691"/>
-      <c r="AI691"/>
-    </row>
-    <row r="692" spans="7:35">
-      <c r="G692"/>
-      <c r="H692"/>
-      <c r="I692"/>
-      <c r="AI692"/>
-    </row>
-    <row r="693" spans="7:35">
-      <c r="G693"/>
-      <c r="H693"/>
-      <c r="I693"/>
-      <c r="AI693"/>
-    </row>
-    <row r="694" spans="7:35">
-      <c r="G694"/>
-      <c r="H694"/>
-      <c r="I694"/>
-      <c r="AI694"/>
-    </row>
-    <row r="695" spans="7:35">
-      <c r="G695"/>
-      <c r="H695"/>
-      <c r="I695"/>
-      <c r="AI695"/>
-    </row>
-    <row r="696" spans="7:35">
-      <c r="G696"/>
-      <c r="H696"/>
-      <c r="I696"/>
-      <c r="AI696"/>
-    </row>
-    <row r="697" spans="7:35">
-      <c r="G697"/>
-      <c r="H697"/>
-      <c r="I697"/>
-      <c r="AI697"/>
-    </row>
-    <row r="698" spans="7:35">
-      <c r="G698"/>
-      <c r="H698"/>
-      <c r="I698"/>
-      <c r="AI698"/>
-    </row>
-    <row r="699" spans="7:35">
-      <c r="G699"/>
-      <c r="H699"/>
-      <c r="I699"/>
-      <c r="AI699"/>
-    </row>
-    <row r="700" spans="7:35">
-      <c r="G700"/>
-      <c r="H700"/>
-      <c r="I700"/>
-      <c r="AI700"/>
-    </row>
-    <row r="701" spans="7:35">
-      <c r="G701"/>
-      <c r="H701"/>
-      <c r="I701"/>
-      <c r="AI701"/>
-    </row>
-    <row r="702" spans="7:35">
-      <c r="G702"/>
-      <c r="H702"/>
-      <c r="I702"/>
-      <c r="AI702"/>
-    </row>
-    <row r="703" spans="7:35">
-      <c r="G703"/>
-      <c r="H703"/>
-      <c r="I703"/>
-      <c r="AI703"/>
-    </row>
-    <row r="704" spans="7:35">
-      <c r="G704"/>
-      <c r="H704"/>
-      <c r="I704"/>
-      <c r="AI704"/>
-    </row>
+    <row r="673" customFormat="1"/>
+    <row r="674" customFormat="1"/>
+    <row r="675" customFormat="1"/>
+    <row r="676" customFormat="1"/>
+    <row r="677" customFormat="1"/>
+    <row r="678" customFormat="1"/>
+    <row r="679" customFormat="1"/>
+    <row r="680" customFormat="1"/>
+    <row r="681" customFormat="1"/>
+    <row r="682" customFormat="1"/>
+    <row r="683" customFormat="1"/>
+    <row r="684" customFormat="1"/>
+    <row r="685" customFormat="1"/>
+    <row r="686" customFormat="1"/>
+    <row r="687" customFormat="1"/>
+    <row r="688" customFormat="1"/>
+    <row r="689" customFormat="1"/>
+    <row r="690" customFormat="1"/>
+    <row r="691" customFormat="1"/>
+    <row r="692" customFormat="1"/>
+    <row r="693" customFormat="1"/>
+    <row r="694" customFormat="1"/>
+    <row r="695" customFormat="1"/>
+    <row r="696" customFormat="1"/>
+    <row r="697" customFormat="1"/>
+    <row r="698" customFormat="1"/>
+    <row r="699" customFormat="1"/>
+    <row r="700" customFormat="1"/>
+    <row r="701" customFormat="1"/>
+    <row r="702" customFormat="1"/>
+    <row r="703" customFormat="1"/>
+    <row r="704" customFormat="1"/>
     <row r="705" spans="1:151" s="2" customFormat="1">
       <c r="A705"/>
       <c r="B705"/>
@@ -30265,102 +29200,22 @@
       <c r="I720"/>
       <c r="AI720"/>
     </row>
-    <row r="721" spans="7:35">
-      <c r="G721"/>
-      <c r="H721"/>
-      <c r="I721"/>
-      <c r="AI721"/>
-    </row>
-    <row r="722" spans="7:35">
-      <c r="G722"/>
-      <c r="H722"/>
-      <c r="I722"/>
-      <c r="AI722"/>
-    </row>
-    <row r="723" spans="7:35">
-      <c r="G723"/>
-      <c r="H723"/>
-      <c r="I723"/>
-      <c r="AI723"/>
-    </row>
-    <row r="724" spans="7:35">
-      <c r="G724"/>
-      <c r="H724"/>
-      <c r="I724"/>
-      <c r="AI724"/>
-    </row>
-    <row r="725" spans="7:35">
-      <c r="G725"/>
-      <c r="H725"/>
-      <c r="I725"/>
-      <c r="AI725"/>
-    </row>
-    <row r="726" spans="7:35">
-      <c r="G726"/>
-      <c r="H726"/>
-      <c r="I726"/>
-      <c r="AI726"/>
-    </row>
-    <row r="727" spans="7:35">
-      <c r="G727"/>
-      <c r="H727"/>
-      <c r="I727"/>
-      <c r="AI727"/>
-    </row>
-    <row r="728" spans="7:35">
-      <c r="G728"/>
-      <c r="H728"/>
-      <c r="I728"/>
-      <c r="AI728"/>
-    </row>
-    <row r="729" spans="7:35">
-      <c r="G729"/>
-      <c r="H729"/>
-      <c r="I729"/>
-      <c r="AI729"/>
-    </row>
-    <row r="730" spans="7:35">
-      <c r="G730"/>
-      <c r="H730"/>
-      <c r="I730"/>
-      <c r="AI730"/>
-    </row>
-    <row r="731" spans="7:35">
-      <c r="G731"/>
-      <c r="H731"/>
-      <c r="I731"/>
-      <c r="AI731"/>
-    </row>
-    <row r="732" spans="7:35">
-      <c r="G732"/>
-      <c r="H732"/>
-      <c r="I732"/>
-      <c r="AI732"/>
-    </row>
-    <row r="733" spans="7:35">
-      <c r="G733"/>
-      <c r="H733"/>
-      <c r="I733"/>
-      <c r="AI733"/>
-    </row>
-    <row r="734" spans="7:35">
-      <c r="G734"/>
-      <c r="H734"/>
-      <c r="I734"/>
-      <c r="AI734"/>
-    </row>
-    <row r="735" spans="7:35">
-      <c r="G735"/>
-      <c r="H735"/>
-      <c r="I735"/>
-      <c r="AI735"/>
-    </row>
-    <row r="736" spans="7:35">
-      <c r="G736"/>
-      <c r="H736"/>
-      <c r="I736"/>
-      <c r="AI736"/>
-    </row>
+    <row r="721" customFormat="1"/>
+    <row r="722" customFormat="1"/>
+    <row r="723" customFormat="1"/>
+    <row r="724" customFormat="1"/>
+    <row r="725" customFormat="1"/>
+    <row r="726" customFormat="1"/>
+    <row r="727" customFormat="1"/>
+    <row r="728" customFormat="1"/>
+    <row r="729" customFormat="1"/>
+    <row r="730" customFormat="1"/>
+    <row r="731" customFormat="1"/>
+    <row r="732" customFormat="1"/>
+    <row r="733" customFormat="1"/>
+    <row r="734" customFormat="1"/>
+    <row r="735" customFormat="1"/>
+    <row r="736" customFormat="1"/>
     <row r="737" spans="1:151">
       <c r="G737"/>
       <c r="H737"/>
@@ -30604,198 +29459,38 @@
       <c r="I752"/>
       <c r="AI752"/>
     </row>
-    <row r="753" spans="7:35">
-      <c r="G753"/>
-      <c r="H753"/>
-      <c r="I753"/>
-      <c r="AI753"/>
-    </row>
-    <row r="754" spans="7:35">
-      <c r="G754"/>
-      <c r="H754"/>
-      <c r="I754"/>
-      <c r="AI754"/>
-    </row>
-    <row r="755" spans="7:35">
-      <c r="G755"/>
-      <c r="H755"/>
-      <c r="I755"/>
-      <c r="AI755"/>
-    </row>
-    <row r="756" spans="7:35">
-      <c r="G756"/>
-      <c r="H756"/>
-      <c r="I756"/>
-      <c r="AI756"/>
-    </row>
-    <row r="757" spans="7:35">
-      <c r="G757"/>
-      <c r="H757"/>
-      <c r="I757"/>
-      <c r="AI757"/>
-    </row>
-    <row r="758" spans="7:35">
-      <c r="G758"/>
-      <c r="H758"/>
-      <c r="I758"/>
-      <c r="AI758"/>
-    </row>
-    <row r="759" spans="7:35">
-      <c r="G759"/>
-      <c r="H759"/>
-      <c r="I759"/>
-      <c r="AI759"/>
-    </row>
-    <row r="760" spans="7:35">
-      <c r="G760"/>
-      <c r="H760"/>
-      <c r="I760"/>
-      <c r="AI760"/>
-    </row>
-    <row r="761" spans="7:35">
-      <c r="G761"/>
-      <c r="H761"/>
-      <c r="I761"/>
-      <c r="AI761"/>
-    </row>
-    <row r="762" spans="7:35">
-      <c r="G762"/>
-      <c r="H762"/>
-      <c r="I762"/>
-      <c r="AI762"/>
-    </row>
-    <row r="763" spans="7:35">
-      <c r="G763"/>
-      <c r="H763"/>
-      <c r="I763"/>
-      <c r="AI763"/>
-    </row>
-    <row r="764" spans="7:35">
-      <c r="G764"/>
-      <c r="H764"/>
-      <c r="I764"/>
-      <c r="AI764"/>
-    </row>
-    <row r="765" spans="7:35">
-      <c r="G765"/>
-      <c r="H765"/>
-      <c r="I765"/>
-      <c r="AI765"/>
-    </row>
-    <row r="766" spans="7:35">
-      <c r="G766"/>
-      <c r="H766"/>
-      <c r="I766"/>
-      <c r="AI766"/>
-    </row>
-    <row r="767" spans="7:35">
-      <c r="G767"/>
-      <c r="H767"/>
-      <c r="I767"/>
-      <c r="AI767"/>
-    </row>
-    <row r="768" spans="7:35">
-      <c r="G768"/>
-      <c r="H768"/>
-      <c r="I768"/>
-      <c r="AI768"/>
-    </row>
-    <row r="769" spans="7:35">
-      <c r="G769"/>
-      <c r="H769"/>
-      <c r="I769"/>
-      <c r="AI769"/>
-    </row>
-    <row r="770" spans="7:35">
-      <c r="G770"/>
-      <c r="H770"/>
-      <c r="I770"/>
-      <c r="AI770"/>
-    </row>
-    <row r="771" spans="7:35">
-      <c r="G771"/>
-      <c r="H771"/>
-      <c r="I771"/>
-      <c r="AI771"/>
-    </row>
-    <row r="772" spans="7:35">
-      <c r="G772"/>
-      <c r="H772"/>
-      <c r="I772"/>
-      <c r="AI772"/>
-    </row>
-    <row r="773" spans="7:35">
-      <c r="G773"/>
-      <c r="H773"/>
-      <c r="I773"/>
-      <c r="AI773"/>
-    </row>
-    <row r="774" spans="7:35">
-      <c r="G774"/>
-      <c r="H774"/>
-      <c r="I774"/>
-      <c r="AI774"/>
-    </row>
-    <row r="775" spans="7:35">
-      <c r="G775"/>
-      <c r="H775"/>
-      <c r="I775"/>
-      <c r="AI775"/>
-    </row>
-    <row r="776" spans="7:35">
-      <c r="G776"/>
-      <c r="H776"/>
-      <c r="I776"/>
-      <c r="AI776"/>
-    </row>
-    <row r="777" spans="7:35">
-      <c r="G777"/>
-      <c r="H777"/>
-      <c r="I777"/>
-      <c r="AI777"/>
-    </row>
-    <row r="778" spans="7:35">
-      <c r="G778"/>
-      <c r="H778"/>
-      <c r="I778"/>
-      <c r="AI778"/>
-    </row>
-    <row r="779" spans="7:35">
-      <c r="G779"/>
-      <c r="H779"/>
-      <c r="I779"/>
-      <c r="AI779"/>
-    </row>
-    <row r="780" spans="7:35">
-      <c r="G780"/>
-      <c r="H780"/>
-      <c r="I780"/>
-      <c r="AI780"/>
-    </row>
-    <row r="781" spans="7:35">
-      <c r="G781"/>
-      <c r="H781"/>
-      <c r="I781"/>
-      <c r="AI781"/>
-    </row>
-    <row r="782" spans="7:35">
-      <c r="G782"/>
-      <c r="H782"/>
-      <c r="I782"/>
-      <c r="AI782"/>
-    </row>
-    <row r="783" spans="7:35">
-      <c r="G783"/>
-      <c r="H783"/>
-      <c r="I783"/>
-      <c r="AI783"/>
-    </row>
-    <row r="784" spans="7:35">
-      <c r="G784"/>
-      <c r="H784"/>
-      <c r="I784"/>
-      <c r="AI784"/>
-    </row>
+    <row r="753" customFormat="1"/>
+    <row r="754" customFormat="1"/>
+    <row r="755" customFormat="1"/>
+    <row r="756" customFormat="1"/>
+    <row r="757" customFormat="1"/>
+    <row r="758" customFormat="1"/>
+    <row r="759" customFormat="1"/>
+    <row r="760" customFormat="1"/>
+    <row r="761" customFormat="1"/>
+    <row r="762" customFormat="1"/>
+    <row r="763" customFormat="1"/>
+    <row r="764" customFormat="1"/>
+    <row r="765" customFormat="1"/>
+    <row r="766" customFormat="1"/>
+    <row r="767" customFormat="1"/>
+    <row r="768" customFormat="1"/>
+    <row r="769" customFormat="1"/>
+    <row r="770" customFormat="1"/>
+    <row r="771" customFormat="1"/>
+    <row r="772" customFormat="1"/>
+    <row r="773" customFormat="1"/>
+    <row r="774" customFormat="1"/>
+    <row r="775" customFormat="1"/>
+    <row r="776" customFormat="1"/>
+    <row r="777" customFormat="1"/>
+    <row r="778" customFormat="1"/>
+    <row r="779" customFormat="1"/>
+    <row r="780" customFormat="1"/>
+    <row r="781" customFormat="1"/>
+    <row r="782" customFormat="1"/>
+    <row r="783" customFormat="1"/>
+    <row r="784" customFormat="1"/>
     <row r="785" spans="1:151">
       <c r="G785"/>
       <c r="H785"/>
@@ -64078,2886 +62773,486 @@
       <c r="I1088"/>
       <c r="AI1088"/>
     </row>
-    <row r="1089" spans="7:35">
-      <c r="G1089"/>
-      <c r="H1089"/>
-      <c r="I1089"/>
-      <c r="AI1089"/>
-    </row>
-    <row r="1090" spans="7:35">
-      <c r="G1090"/>
-      <c r="H1090"/>
-      <c r="I1090"/>
-      <c r="AI1090"/>
-    </row>
-    <row r="1091" spans="7:35">
-      <c r="G1091"/>
-      <c r="H1091"/>
-      <c r="I1091"/>
-      <c r="AI1091"/>
-    </row>
-    <row r="1092" spans="7:35">
-      <c r="G1092"/>
-      <c r="H1092"/>
-      <c r="I1092"/>
-      <c r="AI1092"/>
-    </row>
-    <row r="1093" spans="7:35">
-      <c r="G1093"/>
-      <c r="H1093"/>
-      <c r="I1093"/>
-      <c r="AI1093"/>
-    </row>
-    <row r="1094" spans="7:35">
-      <c r="G1094"/>
-      <c r="H1094"/>
-      <c r="I1094"/>
-      <c r="AI1094"/>
-    </row>
-    <row r="1095" spans="7:35">
-      <c r="G1095"/>
-      <c r="H1095"/>
-      <c r="I1095"/>
-      <c r="AI1095"/>
-    </row>
-    <row r="1096" spans="7:35">
-      <c r="G1096"/>
-      <c r="H1096"/>
-      <c r="I1096"/>
-      <c r="AI1096"/>
-    </row>
-    <row r="1097" spans="7:35">
-      <c r="G1097"/>
-      <c r="H1097"/>
-      <c r="I1097"/>
-      <c r="AI1097"/>
-    </row>
-    <row r="1098" spans="7:35">
-      <c r="G1098"/>
-      <c r="H1098"/>
-      <c r="I1098"/>
-      <c r="AI1098"/>
-    </row>
-    <row r="1099" spans="7:35">
-      <c r="G1099"/>
-      <c r="H1099"/>
-      <c r="I1099"/>
-      <c r="AI1099"/>
-    </row>
-    <row r="1100" spans="7:35">
-      <c r="G1100"/>
-      <c r="H1100"/>
-      <c r="I1100"/>
-      <c r="AI1100"/>
-    </row>
-    <row r="1101" spans="7:35">
-      <c r="G1101"/>
-      <c r="H1101"/>
-      <c r="I1101"/>
-      <c r="AI1101"/>
-    </row>
-    <row r="1102" spans="7:35">
-      <c r="G1102"/>
-      <c r="H1102"/>
-      <c r="I1102"/>
-      <c r="AI1102"/>
-    </row>
-    <row r="1103" spans="7:35">
-      <c r="G1103"/>
-      <c r="H1103"/>
-      <c r="I1103"/>
-      <c r="AI1103"/>
-    </row>
-    <row r="1104" spans="7:35">
-      <c r="G1104"/>
-      <c r="H1104"/>
-      <c r="I1104"/>
-      <c r="AI1104"/>
-    </row>
-    <row r="1105" spans="7:35">
-      <c r="G1105"/>
-      <c r="H1105"/>
-      <c r="I1105"/>
-      <c r="AI1105"/>
-    </row>
-    <row r="1106" spans="7:35">
-      <c r="G1106"/>
-      <c r="H1106"/>
-      <c r="I1106"/>
-      <c r="AI1106"/>
-    </row>
-    <row r="1107" spans="7:35">
-      <c r="G1107"/>
-      <c r="H1107"/>
-      <c r="I1107"/>
-      <c r="AI1107"/>
-    </row>
-    <row r="1108" spans="7:35">
-      <c r="G1108"/>
-      <c r="H1108"/>
-      <c r="I1108"/>
-      <c r="AI1108"/>
-    </row>
-    <row r="1109" spans="7:35">
-      <c r="G1109"/>
-      <c r="H1109"/>
-      <c r="I1109"/>
-      <c r="AI1109"/>
-    </row>
-    <row r="1110" spans="7:35">
-      <c r="G1110"/>
-      <c r="H1110"/>
-      <c r="I1110"/>
-      <c r="AI1110"/>
-    </row>
-    <row r="1111" spans="7:35">
-      <c r="G1111"/>
-      <c r="H1111"/>
-      <c r="I1111"/>
-      <c r="AI1111"/>
-    </row>
-    <row r="1112" spans="7:35">
-      <c r="G1112"/>
-      <c r="H1112"/>
-      <c r="I1112"/>
-      <c r="AI1112"/>
-    </row>
-    <row r="1113" spans="7:35">
-      <c r="G1113"/>
-      <c r="H1113"/>
-      <c r="I1113"/>
-      <c r="AI1113"/>
-    </row>
-    <row r="1114" spans="7:35">
-      <c r="G1114"/>
-      <c r="H1114"/>
-      <c r="I1114"/>
-      <c r="AI1114"/>
-    </row>
-    <row r="1115" spans="7:35">
-      <c r="G1115"/>
-      <c r="H1115"/>
-      <c r="I1115"/>
-      <c r="AI1115"/>
-    </row>
-    <row r="1116" spans="7:35">
-      <c r="G1116"/>
-      <c r="H1116"/>
-      <c r="I1116"/>
-      <c r="AI1116"/>
-    </row>
-    <row r="1117" spans="7:35">
-      <c r="G1117"/>
-      <c r="H1117"/>
-      <c r="I1117"/>
-      <c r="AI1117"/>
-    </row>
-    <row r="1118" spans="7:35">
-      <c r="G1118"/>
-      <c r="H1118"/>
-      <c r="I1118"/>
-      <c r="AI1118"/>
-    </row>
-    <row r="1119" spans="7:35">
-      <c r="G1119"/>
-      <c r="H1119"/>
-      <c r="I1119"/>
-      <c r="AI1119"/>
-    </row>
-    <row r="1120" spans="7:35">
-      <c r="G1120"/>
-      <c r="H1120"/>
-      <c r="I1120"/>
-      <c r="AI1120"/>
-    </row>
-    <row r="1121" spans="7:35">
-      <c r="G1121"/>
-      <c r="H1121"/>
-      <c r="I1121"/>
-      <c r="AI1121"/>
-    </row>
-    <row r="1122" spans="7:35">
-      <c r="G1122"/>
-      <c r="H1122"/>
-      <c r="I1122"/>
-      <c r="AI1122"/>
-    </row>
-    <row r="1123" spans="7:35">
-      <c r="G1123"/>
-      <c r="H1123"/>
-      <c r="I1123"/>
-      <c r="AI1123"/>
-    </row>
-    <row r="1124" spans="7:35">
-      <c r="G1124"/>
-      <c r="H1124"/>
-      <c r="I1124"/>
-      <c r="AI1124"/>
-    </row>
-    <row r="1125" spans="7:35">
-      <c r="G1125"/>
-      <c r="H1125"/>
-      <c r="I1125"/>
-      <c r="AI1125"/>
-    </row>
-    <row r="1126" spans="7:35">
-      <c r="G1126"/>
-      <c r="H1126"/>
-      <c r="I1126"/>
-      <c r="AI1126"/>
-    </row>
-    <row r="1127" spans="7:35">
-      <c r="G1127"/>
-      <c r="H1127"/>
-      <c r="I1127"/>
-      <c r="AI1127"/>
-    </row>
-    <row r="1128" spans="7:35">
-      <c r="G1128"/>
-      <c r="H1128"/>
-      <c r="I1128"/>
-      <c r="AI1128"/>
-    </row>
-    <row r="1129" spans="7:35">
-      <c r="G1129"/>
-      <c r="H1129"/>
-      <c r="I1129"/>
-      <c r="AI1129"/>
-    </row>
-    <row r="1130" spans="7:35">
-      <c r="G1130"/>
-      <c r="H1130"/>
-      <c r="I1130"/>
-      <c r="AI1130"/>
-    </row>
-    <row r="1131" spans="7:35">
-      <c r="G1131"/>
-      <c r="H1131"/>
-      <c r="I1131"/>
-      <c r="AI1131"/>
-    </row>
-    <row r="1132" spans="7:35">
-      <c r="G1132"/>
-      <c r="H1132"/>
-      <c r="I1132"/>
-      <c r="AI1132"/>
-    </row>
-    <row r="1133" spans="7:35">
-      <c r="G1133"/>
-      <c r="H1133"/>
-      <c r="I1133"/>
-      <c r="AI1133"/>
-    </row>
-    <row r="1134" spans="7:35">
-      <c r="G1134"/>
-      <c r="H1134"/>
-      <c r="I1134"/>
-      <c r="AI1134"/>
-    </row>
-    <row r="1135" spans="7:35">
-      <c r="G1135"/>
-      <c r="H1135"/>
-      <c r="I1135"/>
-      <c r="AI1135"/>
-    </row>
-    <row r="1136" spans="7:35">
-      <c r="G1136"/>
-      <c r="H1136"/>
-      <c r="I1136"/>
-      <c r="AI1136"/>
-    </row>
-    <row r="1137" spans="7:35">
-      <c r="G1137"/>
-      <c r="H1137"/>
-      <c r="I1137"/>
-      <c r="AI1137"/>
-    </row>
-    <row r="1138" spans="7:35">
-      <c r="G1138"/>
-      <c r="H1138"/>
-      <c r="I1138"/>
-      <c r="AI1138"/>
-    </row>
-    <row r="1139" spans="7:35">
-      <c r="G1139"/>
-      <c r="H1139"/>
-      <c r="I1139"/>
-      <c r="AI1139"/>
-    </row>
-    <row r="1140" spans="7:35">
-      <c r="G1140"/>
-      <c r="H1140"/>
-      <c r="I1140"/>
-      <c r="AI1140"/>
-    </row>
-    <row r="1141" spans="7:35">
-      <c r="G1141"/>
-      <c r="H1141"/>
-      <c r="I1141"/>
-      <c r="AI1141"/>
-    </row>
-    <row r="1142" spans="7:35">
-      <c r="G1142"/>
-      <c r="H1142"/>
-      <c r="I1142"/>
-      <c r="AI1142"/>
-    </row>
-    <row r="1143" spans="7:35">
-      <c r="G1143"/>
-      <c r="H1143"/>
-      <c r="I1143"/>
-      <c r="AI1143"/>
-    </row>
-    <row r="1144" spans="7:35">
-      <c r="G1144"/>
-      <c r="H1144"/>
-      <c r="I1144"/>
-      <c r="AI1144"/>
-    </row>
-    <row r="1145" spans="7:35">
-      <c r="G1145"/>
-      <c r="H1145"/>
-      <c r="I1145"/>
-      <c r="AI1145"/>
-    </row>
-    <row r="1146" spans="7:35">
-      <c r="G1146"/>
-      <c r="H1146"/>
-      <c r="I1146"/>
-      <c r="AI1146"/>
-    </row>
-    <row r="1147" spans="7:35">
-      <c r="G1147"/>
-      <c r="H1147"/>
-      <c r="I1147"/>
-      <c r="AI1147"/>
-    </row>
-    <row r="1148" spans="7:35">
-      <c r="G1148"/>
-      <c r="H1148"/>
-      <c r="I1148"/>
-      <c r="AI1148"/>
-    </row>
-    <row r="1149" spans="7:35">
-      <c r="G1149"/>
-      <c r="H1149"/>
-      <c r="I1149"/>
-      <c r="AI1149"/>
-    </row>
-    <row r="1150" spans="7:35">
-      <c r="G1150"/>
-      <c r="H1150"/>
-      <c r="I1150"/>
-      <c r="AI1150"/>
-    </row>
-    <row r="1151" spans="7:35">
-      <c r="G1151"/>
-      <c r="H1151"/>
-      <c r="I1151"/>
-      <c r="AI1151"/>
-    </row>
-    <row r="1152" spans="7:35">
-      <c r="G1152"/>
-      <c r="H1152"/>
-      <c r="I1152"/>
-      <c r="AI1152"/>
-    </row>
-    <row r="1153" spans="7:35">
-      <c r="G1153"/>
-      <c r="H1153"/>
-      <c r="I1153"/>
-      <c r="AI1153"/>
-    </row>
-    <row r="1154" spans="7:35">
-      <c r="G1154"/>
-      <c r="H1154"/>
-      <c r="I1154"/>
-      <c r="AI1154"/>
-    </row>
-    <row r="1155" spans="7:35">
-      <c r="G1155"/>
-      <c r="H1155"/>
-      <c r="I1155"/>
-      <c r="AI1155"/>
-    </row>
-    <row r="1156" spans="7:35">
-      <c r="G1156"/>
-      <c r="H1156"/>
-      <c r="I1156"/>
-      <c r="AI1156"/>
-    </row>
-    <row r="1157" spans="7:35">
-      <c r="G1157"/>
-      <c r="H1157"/>
-      <c r="I1157"/>
-      <c r="AI1157"/>
-    </row>
-    <row r="1158" spans="7:35">
-      <c r="G1158"/>
-      <c r="H1158"/>
-      <c r="I1158"/>
-      <c r="AI1158"/>
-    </row>
-    <row r="1159" spans="7:35">
-      <c r="G1159"/>
-      <c r="H1159"/>
-      <c r="I1159"/>
-      <c r="AI1159"/>
-    </row>
-    <row r="1160" spans="7:35">
-      <c r="G1160"/>
-      <c r="H1160"/>
-      <c r="I1160"/>
-      <c r="AI1160"/>
-    </row>
-    <row r="1161" spans="7:35">
-      <c r="G1161"/>
-      <c r="H1161"/>
-      <c r="I1161"/>
-      <c r="AI1161"/>
-    </row>
-    <row r="1162" spans="7:35">
-      <c r="G1162"/>
-      <c r="H1162"/>
-      <c r="I1162"/>
-      <c r="AI1162"/>
-    </row>
-    <row r="1163" spans="7:35">
-      <c r="G1163"/>
-      <c r="H1163"/>
-      <c r="I1163"/>
-      <c r="AI1163"/>
-    </row>
-    <row r="1164" spans="7:35">
-      <c r="G1164"/>
-      <c r="H1164"/>
-      <c r="I1164"/>
-      <c r="AI1164"/>
-    </row>
-    <row r="1165" spans="7:35">
-      <c r="G1165"/>
-      <c r="H1165"/>
-      <c r="I1165"/>
-      <c r="AI1165"/>
-    </row>
-    <row r="1166" spans="7:35">
-      <c r="G1166"/>
-      <c r="H1166"/>
-      <c r="I1166"/>
-      <c r="AI1166"/>
-    </row>
-    <row r="1167" spans="7:35">
-      <c r="G1167"/>
-      <c r="H1167"/>
-      <c r="I1167"/>
-      <c r="AI1167"/>
-    </row>
-    <row r="1168" spans="7:35">
-      <c r="G1168"/>
-      <c r="H1168"/>
-      <c r="I1168"/>
-      <c r="AI1168"/>
-    </row>
-    <row r="1169" spans="7:35">
-      <c r="G1169"/>
-      <c r="H1169"/>
-      <c r="I1169"/>
-      <c r="AI1169"/>
-    </row>
-    <row r="1170" spans="7:35">
-      <c r="G1170"/>
-      <c r="H1170"/>
-      <c r="I1170"/>
-      <c r="AI1170"/>
-    </row>
-    <row r="1171" spans="7:35">
-      <c r="G1171"/>
-      <c r="H1171"/>
-      <c r="I1171"/>
-      <c r="AI1171"/>
-    </row>
-    <row r="1172" spans="7:35">
-      <c r="G1172"/>
-      <c r="H1172"/>
-      <c r="I1172"/>
-      <c r="AI1172"/>
-    </row>
-    <row r="1173" spans="7:35">
-      <c r="G1173"/>
-      <c r="H1173"/>
-      <c r="I1173"/>
-      <c r="AI1173"/>
-    </row>
-    <row r="1174" spans="7:35">
-      <c r="G1174"/>
-      <c r="H1174"/>
-      <c r="I1174"/>
-      <c r="AI1174"/>
-    </row>
-    <row r="1175" spans="7:35">
-      <c r="G1175"/>
-      <c r="H1175"/>
-      <c r="I1175"/>
-      <c r="AI1175"/>
-    </row>
-    <row r="1176" spans="7:35">
-      <c r="G1176"/>
-      <c r="H1176"/>
-      <c r="I1176"/>
-      <c r="AI1176"/>
-    </row>
-    <row r="1177" spans="7:35">
-      <c r="G1177"/>
-      <c r="H1177"/>
-      <c r="I1177"/>
-      <c r="AI1177"/>
-    </row>
-    <row r="1178" spans="7:35">
-      <c r="G1178"/>
-      <c r="H1178"/>
-      <c r="I1178"/>
-      <c r="AI1178"/>
-    </row>
-    <row r="1179" spans="7:35">
-      <c r="G1179"/>
-      <c r="H1179"/>
-      <c r="I1179"/>
-      <c r="AI1179"/>
-    </row>
-    <row r="1180" spans="7:35">
-      <c r="G1180"/>
-      <c r="H1180"/>
-      <c r="I1180"/>
-      <c r="AI1180"/>
-    </row>
-    <row r="1181" spans="7:35">
-      <c r="G1181"/>
-      <c r="H1181"/>
-      <c r="I1181"/>
-      <c r="AI1181"/>
-    </row>
-    <row r="1182" spans="7:35">
-      <c r="G1182"/>
-      <c r="H1182"/>
-      <c r="I1182"/>
-      <c r="AI1182"/>
-    </row>
-    <row r="1183" spans="7:35">
-      <c r="G1183"/>
-      <c r="H1183"/>
-      <c r="I1183"/>
-      <c r="AI1183"/>
-    </row>
-    <row r="1184" spans="7:35">
-      <c r="G1184"/>
-      <c r="H1184"/>
-      <c r="I1184"/>
-      <c r="AI1184"/>
-    </row>
-    <row r="1185" spans="7:35">
-      <c r="G1185"/>
-      <c r="H1185"/>
-      <c r="I1185"/>
-      <c r="AI1185"/>
-    </row>
-    <row r="1186" spans="7:35">
-      <c r="G1186"/>
-      <c r="H1186"/>
-      <c r="I1186"/>
-      <c r="AI1186"/>
-    </row>
-    <row r="1187" spans="7:35">
-      <c r="G1187"/>
-      <c r="H1187"/>
-      <c r="I1187"/>
-      <c r="AI1187"/>
-    </row>
-    <row r="1188" spans="7:35">
-      <c r="G1188"/>
-      <c r="H1188"/>
-      <c r="I1188"/>
-      <c r="AI1188"/>
-    </row>
-    <row r="1189" spans="7:35">
-      <c r="G1189"/>
-      <c r="H1189"/>
-      <c r="I1189"/>
-      <c r="AI1189"/>
-    </row>
-    <row r="1190" spans="7:35">
-      <c r="G1190"/>
-      <c r="H1190"/>
-      <c r="I1190"/>
-      <c r="AI1190"/>
-    </row>
-    <row r="1191" spans="7:35">
-      <c r="G1191"/>
-      <c r="H1191"/>
-      <c r="I1191"/>
-      <c r="AI1191"/>
-    </row>
-    <row r="1192" spans="7:35">
-      <c r="G1192"/>
-      <c r="H1192"/>
-      <c r="I1192"/>
-      <c r="AI1192"/>
-    </row>
-    <row r="1193" spans="7:35">
-      <c r="G1193"/>
-      <c r="H1193"/>
-      <c r="I1193"/>
-      <c r="AI1193"/>
-    </row>
-    <row r="1194" spans="7:35">
-      <c r="G1194"/>
-      <c r="H1194"/>
-      <c r="I1194"/>
-      <c r="AI1194"/>
-    </row>
-    <row r="1195" spans="7:35">
-      <c r="G1195"/>
-      <c r="H1195"/>
-      <c r="I1195"/>
-      <c r="AI1195"/>
-    </row>
-    <row r="1196" spans="7:35">
-      <c r="G1196"/>
-      <c r="H1196"/>
-      <c r="I1196"/>
-      <c r="AI1196"/>
-    </row>
-    <row r="1197" spans="7:35">
-      <c r="G1197"/>
-      <c r="H1197"/>
-      <c r="I1197"/>
-      <c r="AI1197"/>
-    </row>
-    <row r="1198" spans="7:35">
-      <c r="G1198"/>
-      <c r="H1198"/>
-      <c r="I1198"/>
-      <c r="AI1198"/>
-    </row>
-    <row r="1199" spans="7:35">
-      <c r="G1199"/>
-      <c r="H1199"/>
-      <c r="I1199"/>
-      <c r="AI1199"/>
-    </row>
-    <row r="1200" spans="7:35">
-      <c r="G1200"/>
-      <c r="H1200"/>
-      <c r="I1200"/>
-      <c r="AI1200"/>
-    </row>
-    <row r="1201" spans="7:35">
-      <c r="G1201"/>
-      <c r="H1201"/>
-      <c r="I1201"/>
-      <c r="AI1201"/>
-    </row>
-    <row r="1202" spans="7:35">
-      <c r="G1202"/>
-      <c r="H1202"/>
-      <c r="I1202"/>
-      <c r="AI1202"/>
-    </row>
-    <row r="1203" spans="7:35">
-      <c r="G1203"/>
-      <c r="H1203"/>
-      <c r="I1203"/>
-      <c r="AI1203"/>
-    </row>
-    <row r="1204" spans="7:35">
-      <c r="G1204"/>
-      <c r="H1204"/>
-      <c r="I1204"/>
-      <c r="AI1204"/>
-    </row>
-    <row r="1205" spans="7:35">
-      <c r="G1205"/>
-      <c r="H1205"/>
-      <c r="I1205"/>
-      <c r="AI1205"/>
-    </row>
-    <row r="1206" spans="7:35">
-      <c r="G1206"/>
-      <c r="H1206"/>
-      <c r="I1206"/>
-      <c r="AI1206"/>
-    </row>
-    <row r="1207" spans="7:35">
-      <c r="G1207"/>
-      <c r="H1207"/>
-      <c r="I1207"/>
-      <c r="AI1207"/>
-    </row>
-    <row r="1208" spans="7:35">
-      <c r="G1208"/>
-      <c r="H1208"/>
-      <c r="I1208"/>
-      <c r="AI1208"/>
-    </row>
-    <row r="1209" spans="7:35">
-      <c r="G1209"/>
-      <c r="H1209"/>
-      <c r="I1209"/>
-      <c r="AI1209"/>
-    </row>
-    <row r="1210" spans="7:35">
-      <c r="G1210"/>
-      <c r="H1210"/>
-      <c r="I1210"/>
-      <c r="AI1210"/>
-    </row>
-    <row r="1211" spans="7:35">
-      <c r="G1211"/>
-      <c r="H1211"/>
-      <c r="I1211"/>
-      <c r="AI1211"/>
-    </row>
-    <row r="1212" spans="7:35">
-      <c r="G1212"/>
-      <c r="H1212"/>
-      <c r="I1212"/>
-      <c r="AI1212"/>
-    </row>
-    <row r="1213" spans="7:35">
-      <c r="G1213"/>
-      <c r="H1213"/>
-      <c r="I1213"/>
-      <c r="AI1213"/>
-    </row>
-    <row r="1214" spans="7:35">
-      <c r="G1214"/>
-      <c r="H1214"/>
-      <c r="I1214"/>
-      <c r="AI1214"/>
-    </row>
-    <row r="1215" spans="7:35">
-      <c r="G1215"/>
-      <c r="H1215"/>
-      <c r="I1215"/>
-      <c r="AI1215"/>
-    </row>
-    <row r="1216" spans="7:35">
-      <c r="G1216"/>
-      <c r="H1216"/>
-      <c r="I1216"/>
-      <c r="AI1216"/>
-    </row>
-    <row r="1217" spans="7:35">
-      <c r="G1217"/>
-      <c r="H1217"/>
-      <c r="I1217"/>
-      <c r="AI1217"/>
-    </row>
-    <row r="1218" spans="7:35">
-      <c r="G1218"/>
-      <c r="H1218"/>
-      <c r="I1218"/>
-      <c r="AI1218"/>
-    </row>
-    <row r="1219" spans="7:35">
-      <c r="G1219"/>
-      <c r="H1219"/>
-      <c r="I1219"/>
-      <c r="AI1219"/>
-    </row>
-    <row r="1220" spans="7:35">
-      <c r="G1220"/>
-      <c r="H1220"/>
-      <c r="I1220"/>
-      <c r="AI1220"/>
-    </row>
-    <row r="1221" spans="7:35">
-      <c r="G1221"/>
-      <c r="H1221"/>
-      <c r="I1221"/>
-      <c r="AI1221"/>
-    </row>
-    <row r="1222" spans="7:35">
-      <c r="G1222"/>
-      <c r="H1222"/>
-      <c r="I1222"/>
-      <c r="AI1222"/>
-    </row>
-    <row r="1223" spans="7:35">
-      <c r="G1223"/>
-      <c r="H1223"/>
-      <c r="I1223"/>
-      <c r="AI1223"/>
-    </row>
-    <row r="1224" spans="7:35">
-      <c r="G1224"/>
-      <c r="H1224"/>
-      <c r="I1224"/>
-      <c r="AI1224"/>
-    </row>
-    <row r="1225" spans="7:35">
-      <c r="G1225"/>
-      <c r="H1225"/>
-      <c r="I1225"/>
-      <c r="AI1225"/>
-    </row>
-    <row r="1226" spans="7:35">
-      <c r="G1226"/>
-      <c r="H1226"/>
-      <c r="I1226"/>
-      <c r="AI1226"/>
-    </row>
-    <row r="1227" spans="7:35">
-      <c r="G1227"/>
-      <c r="H1227"/>
-      <c r="I1227"/>
-      <c r="AI1227"/>
-    </row>
-    <row r="1228" spans="7:35">
-      <c r="G1228"/>
-      <c r="H1228"/>
-      <c r="I1228"/>
-      <c r="AI1228"/>
-    </row>
-    <row r="1229" spans="7:35">
-      <c r="G1229"/>
-      <c r="H1229"/>
-      <c r="I1229"/>
-      <c r="AI1229"/>
-    </row>
-    <row r="1230" spans="7:35">
-      <c r="G1230"/>
-      <c r="H1230"/>
-      <c r="I1230"/>
-      <c r="AI1230"/>
-    </row>
-    <row r="1231" spans="7:35">
-      <c r="G1231"/>
-      <c r="H1231"/>
-      <c r="I1231"/>
-      <c r="AI1231"/>
-    </row>
-    <row r="1232" spans="7:35">
-      <c r="G1232"/>
-      <c r="H1232"/>
-      <c r="I1232"/>
-      <c r="AI1232"/>
-    </row>
-    <row r="1233" spans="7:35">
-      <c r="G1233"/>
-      <c r="H1233"/>
-      <c r="I1233"/>
-      <c r="AI1233"/>
-    </row>
-    <row r="1234" spans="7:35">
-      <c r="G1234"/>
-      <c r="H1234"/>
-      <c r="I1234"/>
-      <c r="AI1234"/>
-    </row>
-    <row r="1235" spans="7:35">
-      <c r="G1235"/>
-      <c r="H1235"/>
-      <c r="I1235"/>
-      <c r="AI1235"/>
-    </row>
-    <row r="1236" spans="7:35">
-      <c r="G1236"/>
-      <c r="H1236"/>
-      <c r="I1236"/>
-      <c r="AI1236"/>
-    </row>
-    <row r="1237" spans="7:35">
-      <c r="G1237"/>
-      <c r="H1237"/>
-      <c r="I1237"/>
-      <c r="AI1237"/>
-    </row>
-    <row r="1238" spans="7:35">
-      <c r="G1238"/>
-      <c r="H1238"/>
-      <c r="I1238"/>
-      <c r="AI1238"/>
-    </row>
-    <row r="1239" spans="7:35">
-      <c r="G1239"/>
-      <c r="H1239"/>
-      <c r="I1239"/>
-      <c r="AI1239"/>
-    </row>
-    <row r="1240" spans="7:35">
-      <c r="G1240"/>
-      <c r="H1240"/>
-      <c r="I1240"/>
-      <c r="AI1240"/>
-    </row>
-    <row r="1241" spans="7:35">
-      <c r="G1241"/>
-      <c r="H1241"/>
-      <c r="I1241"/>
-      <c r="AI1241"/>
-    </row>
-    <row r="1242" spans="7:35">
-      <c r="G1242"/>
-      <c r="H1242"/>
-      <c r="I1242"/>
-      <c r="AI1242"/>
-    </row>
-    <row r="1243" spans="7:35">
-      <c r="G1243"/>
-      <c r="H1243"/>
-      <c r="I1243"/>
-      <c r="AI1243"/>
-    </row>
-    <row r="1244" spans="7:35">
-      <c r="G1244"/>
-      <c r="H1244"/>
-      <c r="I1244"/>
-      <c r="AI1244"/>
-    </row>
-    <row r="1245" spans="7:35">
-      <c r="G1245"/>
-      <c r="H1245"/>
-      <c r="I1245"/>
-      <c r="AI1245"/>
-    </row>
-    <row r="1246" spans="7:35">
-      <c r="G1246"/>
-      <c r="H1246"/>
-      <c r="I1246"/>
-      <c r="AI1246"/>
-    </row>
-    <row r="1247" spans="7:35">
-      <c r="G1247"/>
-      <c r="H1247"/>
-      <c r="I1247"/>
-      <c r="AI1247"/>
-    </row>
-    <row r="1248" spans="7:35">
-      <c r="G1248"/>
-      <c r="H1248"/>
-      <c r="I1248"/>
-      <c r="AI1248"/>
-    </row>
-    <row r="1249" spans="7:35">
-      <c r="G1249"/>
-      <c r="H1249"/>
-      <c r="I1249"/>
-      <c r="AI1249"/>
-    </row>
-    <row r="1250" spans="7:35">
-      <c r="G1250"/>
-      <c r="H1250"/>
-      <c r="I1250"/>
-      <c r="AI1250"/>
-    </row>
-    <row r="1251" spans="7:35">
-      <c r="G1251"/>
-      <c r="H1251"/>
-      <c r="I1251"/>
-      <c r="AI1251"/>
-    </row>
-    <row r="1252" spans="7:35">
-      <c r="G1252"/>
-      <c r="H1252"/>
-      <c r="I1252"/>
-      <c r="AI1252"/>
-    </row>
-    <row r="1253" spans="7:35">
-      <c r="G1253"/>
-      <c r="H1253"/>
-      <c r="I1253"/>
-      <c r="AI1253"/>
-    </row>
-    <row r="1254" spans="7:35">
-      <c r="G1254"/>
-      <c r="H1254"/>
-      <c r="I1254"/>
-      <c r="AI1254"/>
-    </row>
-    <row r="1255" spans="7:35">
-      <c r="G1255"/>
-      <c r="H1255"/>
-      <c r="I1255"/>
-      <c r="AI1255"/>
-    </row>
-    <row r="1256" spans="7:35">
-      <c r="G1256"/>
-      <c r="H1256"/>
-      <c r="I1256"/>
-      <c r="AI1256"/>
-    </row>
-    <row r="1257" spans="7:35">
-      <c r="G1257"/>
-      <c r="H1257"/>
-      <c r="I1257"/>
-      <c r="AI1257"/>
-    </row>
-    <row r="1258" spans="7:35">
-      <c r="G1258"/>
-      <c r="H1258"/>
-      <c r="I1258"/>
-      <c r="AI1258"/>
-    </row>
-    <row r="1259" spans="7:35">
-      <c r="G1259"/>
-      <c r="H1259"/>
-      <c r="I1259"/>
-      <c r="AI1259"/>
-    </row>
-    <row r="1260" spans="7:35">
-      <c r="G1260"/>
-      <c r="H1260"/>
-      <c r="I1260"/>
-      <c r="AI1260"/>
-    </row>
-    <row r="1261" spans="7:35">
-      <c r="G1261"/>
-      <c r="H1261"/>
-      <c r="I1261"/>
-      <c r="AI1261"/>
-    </row>
-    <row r="1262" spans="7:35">
-      <c r="G1262"/>
-      <c r="H1262"/>
-      <c r="I1262"/>
-      <c r="AI1262"/>
-    </row>
-    <row r="1263" spans="7:35">
-      <c r="G1263"/>
-      <c r="H1263"/>
-      <c r="I1263"/>
-      <c r="AI1263"/>
-    </row>
-    <row r="1264" spans="7:35">
-      <c r="G1264"/>
-      <c r="H1264"/>
-      <c r="I1264"/>
-      <c r="AI1264"/>
-    </row>
-    <row r="1265" spans="7:35">
-      <c r="G1265"/>
-      <c r="H1265"/>
-      <c r="I1265"/>
-      <c r="AI1265"/>
-    </row>
-    <row r="1266" spans="7:35">
-      <c r="G1266"/>
-      <c r="H1266"/>
-      <c r="I1266"/>
-      <c r="AI1266"/>
-    </row>
-    <row r="1267" spans="7:35">
-      <c r="G1267"/>
-      <c r="H1267"/>
-      <c r="I1267"/>
-      <c r="AI1267"/>
-    </row>
-    <row r="1268" spans="7:35">
-      <c r="G1268"/>
-      <c r="H1268"/>
-      <c r="I1268"/>
-      <c r="AI1268"/>
-    </row>
-    <row r="1269" spans="7:35">
-      <c r="G1269"/>
-      <c r="H1269"/>
-      <c r="I1269"/>
-      <c r="AI1269"/>
-    </row>
-    <row r="1270" spans="7:35">
-      <c r="G1270"/>
-      <c r="H1270"/>
-      <c r="I1270"/>
-      <c r="AI1270"/>
-    </row>
-    <row r="1271" spans="7:35">
-      <c r="G1271"/>
-      <c r="H1271"/>
-      <c r="I1271"/>
-      <c r="AI1271"/>
-    </row>
-    <row r="1272" spans="7:35">
-      <c r="G1272"/>
-      <c r="H1272"/>
-      <c r="I1272"/>
-      <c r="AI1272"/>
-    </row>
-    <row r="1273" spans="7:35">
-      <c r="G1273"/>
-      <c r="H1273"/>
-      <c r="I1273"/>
-      <c r="AI1273"/>
-    </row>
-    <row r="1274" spans="7:35">
-      <c r="G1274"/>
-      <c r="H1274"/>
-      <c r="I1274"/>
-      <c r="AI1274"/>
-    </row>
-    <row r="1275" spans="7:35">
-      <c r="G1275"/>
-      <c r="H1275"/>
-      <c r="I1275"/>
-      <c r="AI1275"/>
-    </row>
-    <row r="1276" spans="7:35">
-      <c r="G1276"/>
-      <c r="H1276"/>
-      <c r="I1276"/>
-      <c r="AI1276"/>
-    </row>
-    <row r="1277" spans="7:35">
-      <c r="G1277"/>
-      <c r="H1277"/>
-      <c r="I1277"/>
-      <c r="AI1277"/>
-    </row>
-    <row r="1278" spans="7:35">
-      <c r="G1278"/>
-      <c r="H1278"/>
-      <c r="I1278"/>
-      <c r="AI1278"/>
-    </row>
-    <row r="1279" spans="7:35">
-      <c r="G1279"/>
-      <c r="H1279"/>
-      <c r="I1279"/>
-      <c r="AI1279"/>
-    </row>
-    <row r="1280" spans="7:35">
-      <c r="G1280"/>
-      <c r="H1280"/>
-      <c r="I1280"/>
-      <c r="AI1280"/>
-    </row>
-    <row r="1281" spans="7:35">
-      <c r="G1281"/>
-      <c r="H1281"/>
-      <c r="I1281"/>
-      <c r="AI1281"/>
-    </row>
-    <row r="1282" spans="7:35">
-      <c r="G1282"/>
-      <c r="H1282"/>
-      <c r="I1282"/>
-      <c r="AI1282"/>
-    </row>
-    <row r="1283" spans="7:35">
-      <c r="G1283"/>
-      <c r="H1283"/>
-      <c r="I1283"/>
-      <c r="AI1283"/>
-    </row>
-    <row r="1284" spans="7:35">
-      <c r="G1284"/>
-      <c r="H1284"/>
-      <c r="I1284"/>
-      <c r="AI1284"/>
-    </row>
-    <row r="1285" spans="7:35">
-      <c r="G1285"/>
-      <c r="H1285"/>
-      <c r="I1285"/>
-      <c r="AI1285"/>
-    </row>
-    <row r="1286" spans="7:35">
-      <c r="G1286"/>
-      <c r="H1286"/>
-      <c r="I1286"/>
-      <c r="AI1286"/>
-    </row>
-    <row r="1287" spans="7:35">
-      <c r="G1287"/>
-      <c r="H1287"/>
-      <c r="I1287"/>
-      <c r="AI1287"/>
-    </row>
-    <row r="1288" spans="7:35">
-      <c r="G1288"/>
-      <c r="H1288"/>
-      <c r="I1288"/>
-      <c r="AI1288"/>
-    </row>
-    <row r="1289" spans="7:35">
-      <c r="G1289"/>
-      <c r="H1289"/>
-      <c r="I1289"/>
-      <c r="AI1289"/>
-    </row>
-    <row r="1290" spans="7:35">
-      <c r="G1290"/>
-      <c r="H1290"/>
-      <c r="I1290"/>
-      <c r="AI1290"/>
-    </row>
-    <row r="1291" spans="7:35">
-      <c r="G1291"/>
-      <c r="H1291"/>
-      <c r="I1291"/>
-      <c r="AI1291"/>
-    </row>
-    <row r="1292" spans="7:35">
-      <c r="G1292"/>
-      <c r="H1292"/>
-      <c r="I1292"/>
-      <c r="AI1292"/>
-    </row>
-    <row r="1293" spans="7:35">
-      <c r="G1293"/>
-      <c r="H1293"/>
-      <c r="I1293"/>
-      <c r="AI1293"/>
-    </row>
-    <row r="1294" spans="7:35">
-      <c r="G1294"/>
-      <c r="H1294"/>
-      <c r="I1294"/>
-      <c r="AI1294"/>
-    </row>
-    <row r="1295" spans="7:35">
-      <c r="G1295"/>
-      <c r="H1295"/>
-      <c r="I1295"/>
-      <c r="AI1295"/>
-    </row>
-    <row r="1296" spans="7:35">
-      <c r="G1296"/>
-      <c r="H1296"/>
-      <c r="I1296"/>
-      <c r="AI1296"/>
-    </row>
-    <row r="1297" spans="7:35">
-      <c r="G1297"/>
-      <c r="H1297"/>
-      <c r="I1297"/>
-      <c r="AI1297"/>
-    </row>
-    <row r="1298" spans="7:35">
-      <c r="G1298"/>
-      <c r="H1298"/>
-      <c r="I1298"/>
-      <c r="AI1298"/>
-    </row>
-    <row r="1299" spans="7:35">
-      <c r="G1299"/>
-      <c r="H1299"/>
-      <c r="I1299"/>
-      <c r="AI1299"/>
-    </row>
-    <row r="1300" spans="7:35">
-      <c r="G1300"/>
-      <c r="H1300"/>
-      <c r="I1300"/>
-      <c r="AI1300"/>
-    </row>
-    <row r="1301" spans="7:35">
-      <c r="G1301"/>
-      <c r="H1301"/>
-      <c r="I1301"/>
-      <c r="AI1301"/>
-    </row>
-    <row r="1302" spans="7:35">
-      <c r="G1302"/>
-      <c r="H1302"/>
-      <c r="I1302"/>
-      <c r="AI1302"/>
-    </row>
-    <row r="1303" spans="7:35">
-      <c r="G1303"/>
-      <c r="H1303"/>
-      <c r="I1303"/>
-      <c r="AI1303"/>
-    </row>
-    <row r="1304" spans="7:35">
-      <c r="G1304"/>
-      <c r="H1304"/>
-      <c r="I1304"/>
-      <c r="AI1304"/>
-    </row>
-    <row r="1305" spans="7:35">
-      <c r="G1305"/>
-      <c r="H1305"/>
-      <c r="I1305"/>
-      <c r="AI1305"/>
-    </row>
-    <row r="1306" spans="7:35">
-      <c r="G1306"/>
-      <c r="H1306"/>
-      <c r="I1306"/>
-      <c r="AI1306"/>
-    </row>
-    <row r="1307" spans="7:35">
-      <c r="G1307"/>
-      <c r="H1307"/>
-      <c r="I1307"/>
-      <c r="AI1307"/>
-    </row>
-    <row r="1308" spans="7:35">
-      <c r="G1308"/>
-      <c r="H1308"/>
-      <c r="I1308"/>
-      <c r="AI1308"/>
-    </row>
-    <row r="1309" spans="7:35">
-      <c r="G1309"/>
-      <c r="H1309"/>
-      <c r="I1309"/>
-      <c r="AI1309"/>
-    </row>
-    <row r="1310" spans="7:35">
-      <c r="G1310"/>
-      <c r="H1310"/>
-      <c r="I1310"/>
-      <c r="AI1310"/>
-    </row>
-    <row r="1311" spans="7:35">
-      <c r="G1311"/>
-      <c r="H1311"/>
-      <c r="I1311"/>
-      <c r="AI1311"/>
-    </row>
-    <row r="1312" spans="7:35">
-      <c r="G1312"/>
-      <c r="H1312"/>
-      <c r="I1312"/>
-      <c r="AI1312"/>
-    </row>
-    <row r="1313" spans="7:35">
-      <c r="G1313"/>
-      <c r="H1313"/>
-      <c r="I1313"/>
-      <c r="AI1313"/>
-    </row>
-    <row r="1314" spans="7:35">
-      <c r="G1314"/>
-      <c r="H1314"/>
-      <c r="I1314"/>
-      <c r="AI1314"/>
-    </row>
-    <row r="1315" spans="7:35">
-      <c r="G1315"/>
-      <c r="H1315"/>
-      <c r="I1315"/>
-      <c r="AI1315"/>
-    </row>
-    <row r="1316" spans="7:35">
-      <c r="G1316"/>
-      <c r="H1316"/>
-      <c r="I1316"/>
-      <c r="AI1316"/>
-    </row>
-    <row r="1317" spans="7:35">
-      <c r="G1317"/>
-      <c r="H1317"/>
-      <c r="I1317"/>
-      <c r="AI1317"/>
-    </row>
-    <row r="1318" spans="7:35">
-      <c r="G1318"/>
-      <c r="H1318"/>
-      <c r="I1318"/>
-      <c r="AI1318"/>
-    </row>
-    <row r="1319" spans="7:35">
-      <c r="G1319"/>
-      <c r="H1319"/>
-      <c r="I1319"/>
-      <c r="AI1319"/>
-    </row>
-    <row r="1320" spans="7:35">
-      <c r="G1320"/>
-      <c r="H1320"/>
-      <c r="I1320"/>
-      <c r="AI1320"/>
-    </row>
-    <row r="1321" spans="7:35">
-      <c r="G1321"/>
-      <c r="H1321"/>
-      <c r="I1321"/>
-      <c r="AI1321"/>
-    </row>
-    <row r="1322" spans="7:35">
-      <c r="G1322"/>
-      <c r="H1322"/>
-      <c r="I1322"/>
-      <c r="AI1322"/>
-    </row>
-    <row r="1323" spans="7:35">
-      <c r="G1323"/>
-      <c r="H1323"/>
-      <c r="I1323"/>
-      <c r="AI1323"/>
-    </row>
-    <row r="1324" spans="7:35">
-      <c r="G1324"/>
-      <c r="H1324"/>
-      <c r="I1324"/>
-      <c r="AI1324"/>
-    </row>
-    <row r="1325" spans="7:35">
-      <c r="G1325"/>
-      <c r="H1325"/>
-      <c r="I1325"/>
-      <c r="AI1325"/>
-    </row>
-    <row r="1326" spans="7:35">
-      <c r="G1326"/>
-      <c r="H1326"/>
-      <c r="I1326"/>
-      <c r="AI1326"/>
-    </row>
-    <row r="1327" spans="7:35">
-      <c r="G1327"/>
-      <c r="H1327"/>
-      <c r="I1327"/>
-      <c r="AI1327"/>
-    </row>
-    <row r="1328" spans="7:35">
-      <c r="G1328"/>
-      <c r="H1328"/>
-      <c r="I1328"/>
-      <c r="AI1328"/>
-    </row>
-    <row r="1329" spans="7:35">
-      <c r="G1329"/>
-      <c r="H1329"/>
-      <c r="I1329"/>
-      <c r="AI1329"/>
-    </row>
-    <row r="1330" spans="7:35">
-      <c r="G1330"/>
-      <c r="H1330"/>
-      <c r="I1330"/>
-      <c r="AI1330"/>
-    </row>
-    <row r="1331" spans="7:35">
-      <c r="G1331"/>
-      <c r="H1331"/>
-      <c r="I1331"/>
-      <c r="AI1331"/>
-    </row>
-    <row r="1332" spans="7:35">
-      <c r="G1332"/>
-      <c r="H1332"/>
-      <c r="I1332"/>
-      <c r="AI1332"/>
-    </row>
-    <row r="1333" spans="7:35">
-      <c r="G1333"/>
-      <c r="H1333"/>
-      <c r="I1333"/>
-      <c r="AI1333"/>
-    </row>
-    <row r="1334" spans="7:35">
-      <c r="G1334"/>
-      <c r="H1334"/>
-      <c r="I1334"/>
-      <c r="AI1334"/>
-    </row>
-    <row r="1335" spans="7:35">
-      <c r="G1335"/>
-      <c r="H1335"/>
-      <c r="I1335"/>
-      <c r="AI1335"/>
-    </row>
-    <row r="1336" spans="7:35">
-      <c r="G1336"/>
-      <c r="H1336"/>
-      <c r="I1336"/>
-      <c r="AI1336"/>
-    </row>
-    <row r="1337" spans="7:35">
-      <c r="G1337"/>
-      <c r="H1337"/>
-      <c r="I1337"/>
-      <c r="AI1337"/>
-    </row>
-    <row r="1338" spans="7:35">
-      <c r="G1338"/>
-      <c r="H1338"/>
-      <c r="I1338"/>
-      <c r="AI1338"/>
-    </row>
-    <row r="1339" spans="7:35">
-      <c r="G1339"/>
-      <c r="H1339"/>
-      <c r="I1339"/>
-      <c r="AI1339"/>
-    </row>
-    <row r="1340" spans="7:35">
-      <c r="G1340"/>
-      <c r="H1340"/>
-      <c r="I1340"/>
-      <c r="AI1340"/>
-    </row>
-    <row r="1341" spans="7:35">
-      <c r="G1341"/>
-      <c r="H1341"/>
-      <c r="I1341"/>
-      <c r="AI1341"/>
-    </row>
-    <row r="1342" spans="7:35">
-      <c r="G1342"/>
-      <c r="H1342"/>
-      <c r="I1342"/>
-      <c r="AI1342"/>
-    </row>
-    <row r="1343" spans="7:35">
-      <c r="G1343"/>
-      <c r="H1343"/>
-      <c r="I1343"/>
-      <c r="AI1343"/>
-    </row>
-    <row r="1344" spans="7:35">
-      <c r="G1344"/>
-      <c r="H1344"/>
-      <c r="I1344"/>
-      <c r="AI1344"/>
-    </row>
-    <row r="1345" spans="7:35">
-      <c r="G1345"/>
-      <c r="H1345"/>
-      <c r="I1345"/>
-      <c r="AI1345"/>
-    </row>
-    <row r="1346" spans="7:35">
-      <c r="G1346"/>
-      <c r="H1346"/>
-      <c r="I1346"/>
-      <c r="AI1346"/>
-    </row>
-    <row r="1347" spans="7:35">
-      <c r="G1347"/>
-      <c r="H1347"/>
-      <c r="I1347"/>
-      <c r="AI1347"/>
-    </row>
-    <row r="1348" spans="7:35">
-      <c r="G1348"/>
-      <c r="H1348"/>
-      <c r="I1348"/>
-      <c r="AI1348"/>
-    </row>
-    <row r="1349" spans="7:35">
-      <c r="G1349"/>
-      <c r="H1349"/>
-      <c r="I1349"/>
-      <c r="AI1349"/>
-    </row>
-    <row r="1350" spans="7:35">
-      <c r="G1350"/>
-      <c r="H1350"/>
-      <c r="I1350"/>
-      <c r="AI1350"/>
-    </row>
-    <row r="1351" spans="7:35">
-      <c r="G1351"/>
-      <c r="H1351"/>
-      <c r="I1351"/>
-      <c r="AI1351"/>
-    </row>
-    <row r="1352" spans="7:35">
-      <c r="G1352"/>
-      <c r="H1352"/>
-      <c r="I1352"/>
-      <c r="AI1352"/>
-    </row>
-    <row r="1353" spans="7:35">
-      <c r="G1353"/>
-      <c r="H1353"/>
-      <c r="I1353"/>
-      <c r="AI1353"/>
-    </row>
-    <row r="1354" spans="7:35">
-      <c r="G1354"/>
-      <c r="H1354"/>
-      <c r="I1354"/>
-      <c r="AI1354"/>
-    </row>
-    <row r="1355" spans="7:35">
-      <c r="G1355"/>
-      <c r="H1355"/>
-      <c r="I1355"/>
-      <c r="AI1355"/>
-    </row>
-    <row r="1356" spans="7:35">
-      <c r="G1356"/>
-      <c r="H1356"/>
-      <c r="I1356"/>
-      <c r="AI1356"/>
-    </row>
-    <row r="1357" spans="7:35">
-      <c r="G1357"/>
-      <c r="H1357"/>
-      <c r="I1357"/>
-      <c r="AI1357"/>
-    </row>
-    <row r="1358" spans="7:35">
-      <c r="G1358"/>
-      <c r="H1358"/>
-      <c r="I1358"/>
-      <c r="AI1358"/>
-    </row>
-    <row r="1359" spans="7:35">
-      <c r="G1359"/>
-      <c r="H1359"/>
-      <c r="I1359"/>
-      <c r="AI1359"/>
-    </row>
-    <row r="1360" spans="7:35">
-      <c r="G1360"/>
-      <c r="H1360"/>
-      <c r="I1360"/>
-      <c r="AI1360"/>
-    </row>
-    <row r="1361" spans="7:35">
-      <c r="G1361"/>
-      <c r="H1361"/>
-      <c r="I1361"/>
-      <c r="AI1361"/>
-    </row>
-    <row r="1362" spans="7:35">
-      <c r="G1362"/>
-      <c r="H1362"/>
-      <c r="I1362"/>
-      <c r="AI1362"/>
-    </row>
-    <row r="1363" spans="7:35">
-      <c r="G1363"/>
-      <c r="H1363"/>
-      <c r="I1363"/>
-      <c r="AI1363"/>
-    </row>
-    <row r="1364" spans="7:35">
-      <c r="G1364"/>
-      <c r="H1364"/>
-      <c r="I1364"/>
-      <c r="AI1364"/>
-    </row>
-    <row r="1365" spans="7:35">
-      <c r="G1365"/>
-      <c r="H1365"/>
-      <c r="I1365"/>
-      <c r="AI1365"/>
-    </row>
-    <row r="1366" spans="7:35">
-      <c r="G1366"/>
-      <c r="H1366"/>
-      <c r="I1366"/>
-      <c r="AI1366"/>
-    </row>
-    <row r="1367" spans="7:35">
-      <c r="G1367"/>
-      <c r="H1367"/>
-      <c r="I1367"/>
-      <c r="AI1367"/>
-    </row>
-    <row r="1368" spans="7:35">
-      <c r="G1368"/>
-      <c r="H1368"/>
-      <c r="I1368"/>
-      <c r="AI1368"/>
-    </row>
-    <row r="1369" spans="7:35">
-      <c r="G1369"/>
-      <c r="H1369"/>
-      <c r="I1369"/>
-      <c r="AI1369"/>
-    </row>
-    <row r="1370" spans="7:35">
-      <c r="G1370"/>
-      <c r="H1370"/>
-      <c r="I1370"/>
-      <c r="AI1370"/>
-    </row>
-    <row r="1371" spans="7:35">
-      <c r="G1371"/>
-      <c r="H1371"/>
-      <c r="I1371"/>
-      <c r="AI1371"/>
-    </row>
-    <row r="1372" spans="7:35">
-      <c r="G1372"/>
-      <c r="H1372"/>
-      <c r="I1372"/>
-      <c r="AI1372"/>
-    </row>
-    <row r="1373" spans="7:35">
-      <c r="G1373"/>
-      <c r="H1373"/>
-      <c r="I1373"/>
-      <c r="AI1373"/>
-    </row>
-    <row r="1374" spans="7:35">
-      <c r="G1374"/>
-      <c r="H1374"/>
-      <c r="I1374"/>
-      <c r="AI1374"/>
-    </row>
-    <row r="1375" spans="7:35">
-      <c r="G1375"/>
-      <c r="H1375"/>
-      <c r="I1375"/>
-      <c r="AI1375"/>
-    </row>
-    <row r="1376" spans="7:35">
-      <c r="G1376"/>
-      <c r="H1376"/>
-      <c r="I1376"/>
-      <c r="AI1376"/>
-    </row>
-    <row r="1377" spans="7:35">
-      <c r="G1377"/>
-      <c r="H1377"/>
-      <c r="I1377"/>
-      <c r="AI1377"/>
-    </row>
-    <row r="1378" spans="7:35">
-      <c r="G1378"/>
-      <c r="H1378"/>
-      <c r="I1378"/>
-      <c r="AI1378"/>
-    </row>
-    <row r="1379" spans="7:35">
-      <c r="G1379"/>
-      <c r="H1379"/>
-      <c r="I1379"/>
-      <c r="AI1379"/>
-    </row>
-    <row r="1380" spans="7:35">
-      <c r="G1380"/>
-      <c r="H1380"/>
-      <c r="I1380"/>
-      <c r="AI1380"/>
-    </row>
-    <row r="1381" spans="7:35">
-      <c r="G1381"/>
-      <c r="H1381"/>
-      <c r="I1381"/>
-      <c r="AI1381"/>
-    </row>
-    <row r="1382" spans="7:35">
-      <c r="G1382"/>
-      <c r="H1382"/>
-      <c r="I1382"/>
-      <c r="AI1382"/>
-    </row>
-    <row r="1383" spans="7:35">
-      <c r="G1383"/>
-      <c r="H1383"/>
-      <c r="I1383"/>
-      <c r="AI1383"/>
-    </row>
-    <row r="1384" spans="7:35">
-      <c r="G1384"/>
-      <c r="H1384"/>
-      <c r="I1384"/>
-      <c r="AI1384"/>
-    </row>
-    <row r="1385" spans="7:35">
-      <c r="G1385"/>
-      <c r="H1385"/>
-      <c r="I1385"/>
-      <c r="AI1385"/>
-    </row>
-    <row r="1386" spans="7:35">
-      <c r="G1386"/>
-      <c r="H1386"/>
-      <c r="I1386"/>
-      <c r="AI1386"/>
-    </row>
-    <row r="1387" spans="7:35">
-      <c r="G1387"/>
-      <c r="H1387"/>
-      <c r="I1387"/>
-      <c r="AI1387"/>
-    </row>
-    <row r="1388" spans="7:35">
-      <c r="G1388"/>
-      <c r="H1388"/>
-      <c r="I1388"/>
-      <c r="AI1388"/>
-    </row>
-    <row r="1389" spans="7:35">
-      <c r="G1389"/>
-      <c r="H1389"/>
-      <c r="I1389"/>
-      <c r="AI1389"/>
-    </row>
-    <row r="1390" spans="7:35">
-      <c r="G1390"/>
-      <c r="H1390"/>
-      <c r="I1390"/>
-      <c r="AI1390"/>
-    </row>
-    <row r="1391" spans="7:35">
-      <c r="G1391"/>
-      <c r="H1391"/>
-      <c r="I1391"/>
-      <c r="AI1391"/>
-    </row>
-    <row r="1392" spans="7:35">
-      <c r="G1392"/>
-      <c r="H1392"/>
-      <c r="I1392"/>
-      <c r="AI1392"/>
-    </row>
-    <row r="1393" spans="7:35">
-      <c r="G1393"/>
-      <c r="H1393"/>
-      <c r="I1393"/>
-      <c r="AI1393"/>
-    </row>
-    <row r="1394" spans="7:35">
-      <c r="G1394"/>
-      <c r="H1394"/>
-      <c r="I1394"/>
-      <c r="AI1394"/>
-    </row>
-    <row r="1395" spans="7:35">
-      <c r="G1395"/>
-      <c r="H1395"/>
-      <c r="I1395"/>
-      <c r="AI1395"/>
-    </row>
-    <row r="1396" spans="7:35">
-      <c r="G1396"/>
-      <c r="H1396"/>
-      <c r="I1396"/>
-      <c r="AI1396"/>
-    </row>
-    <row r="1397" spans="7:35">
-      <c r="G1397"/>
-      <c r="H1397"/>
-      <c r="I1397"/>
-      <c r="AI1397"/>
-    </row>
-    <row r="1398" spans="7:35">
-      <c r="G1398"/>
-      <c r="H1398"/>
-      <c r="I1398"/>
-      <c r="AI1398"/>
-    </row>
-    <row r="1399" spans="7:35">
-      <c r="G1399"/>
-      <c r="H1399"/>
-      <c r="I1399"/>
-      <c r="AI1399"/>
-    </row>
-    <row r="1400" spans="7:35">
-      <c r="G1400"/>
-      <c r="H1400"/>
-      <c r="I1400"/>
-      <c r="AI1400"/>
-    </row>
-    <row r="1401" spans="7:35">
-      <c r="G1401"/>
-      <c r="H1401"/>
-      <c r="I1401"/>
-      <c r="AI1401"/>
-    </row>
-    <row r="1402" spans="7:35">
-      <c r="G1402"/>
-      <c r="H1402"/>
-      <c r="I1402"/>
-      <c r="AI1402"/>
-    </row>
-    <row r="1403" spans="7:35">
-      <c r="G1403"/>
-      <c r="H1403"/>
-      <c r="I1403"/>
-      <c r="AI1403"/>
-    </row>
-    <row r="1404" spans="7:35">
-      <c r="G1404"/>
-      <c r="H1404"/>
-      <c r="I1404"/>
-      <c r="AI1404"/>
-    </row>
-    <row r="1405" spans="7:35">
-      <c r="G1405"/>
-      <c r="H1405"/>
-      <c r="I1405"/>
-      <c r="AI1405"/>
-    </row>
-    <row r="1406" spans="7:35">
-      <c r="G1406"/>
-      <c r="H1406"/>
-      <c r="I1406"/>
-      <c r="AI1406"/>
-    </row>
-    <row r="1407" spans="7:35">
-      <c r="G1407"/>
-      <c r="H1407"/>
-      <c r="I1407"/>
-      <c r="AI1407"/>
-    </row>
-    <row r="1408" spans="7:35">
-      <c r="G1408"/>
-      <c r="H1408"/>
-      <c r="I1408"/>
-      <c r="AI1408"/>
-    </row>
-    <row r="1409" spans="7:35">
-      <c r="G1409"/>
-      <c r="H1409"/>
-      <c r="I1409"/>
-      <c r="AI1409"/>
-    </row>
-    <row r="1410" spans="7:35">
-      <c r="G1410"/>
-      <c r="H1410"/>
-      <c r="I1410"/>
-      <c r="AI1410"/>
-    </row>
-    <row r="1411" spans="7:35">
-      <c r="G1411"/>
-      <c r="H1411"/>
-      <c r="I1411"/>
-      <c r="AI1411"/>
-    </row>
-    <row r="1412" spans="7:35">
-      <c r="G1412"/>
-      <c r="H1412"/>
-      <c r="I1412"/>
-      <c r="AI1412"/>
-    </row>
-    <row r="1413" spans="7:35">
-      <c r="G1413"/>
-      <c r="H1413"/>
-      <c r="I1413"/>
-      <c r="AI1413"/>
-    </row>
-    <row r="1414" spans="7:35">
-      <c r="G1414"/>
-      <c r="H1414"/>
-      <c r="I1414"/>
-      <c r="AI1414"/>
-    </row>
-    <row r="1415" spans="7:35">
-      <c r="G1415"/>
-      <c r="H1415"/>
-      <c r="I1415"/>
-      <c r="AI1415"/>
-    </row>
-    <row r="1416" spans="7:35">
-      <c r="G1416"/>
-      <c r="H1416"/>
-      <c r="I1416"/>
-      <c r="AI1416"/>
-    </row>
-    <row r="1417" spans="7:35">
-      <c r="G1417"/>
-      <c r="H1417"/>
-      <c r="I1417"/>
-      <c r="AI1417"/>
-    </row>
-    <row r="1418" spans="7:35">
-      <c r="G1418"/>
-      <c r="H1418"/>
-      <c r="I1418"/>
-      <c r="AI1418"/>
-    </row>
-    <row r="1419" spans="7:35">
-      <c r="G1419"/>
-      <c r="H1419"/>
-      <c r="I1419"/>
-      <c r="AI1419"/>
-    </row>
-    <row r="1420" spans="7:35">
-      <c r="G1420"/>
-      <c r="H1420"/>
-      <c r="I1420"/>
-      <c r="AI1420"/>
-    </row>
-    <row r="1421" spans="7:35">
-      <c r="G1421"/>
-      <c r="H1421"/>
-      <c r="I1421"/>
-      <c r="AI1421"/>
-    </row>
-    <row r="1422" spans="7:35">
-      <c r="G1422"/>
-      <c r="H1422"/>
-      <c r="I1422"/>
-      <c r="AI1422"/>
-    </row>
-    <row r="1423" spans="7:35">
-      <c r="G1423"/>
-      <c r="H1423"/>
-      <c r="I1423"/>
-      <c r="AI1423"/>
-    </row>
-    <row r="1424" spans="7:35">
-      <c r="G1424"/>
-      <c r="H1424"/>
-      <c r="I1424"/>
-      <c r="AI1424"/>
-    </row>
-    <row r="1425" spans="7:35">
-      <c r="G1425"/>
-      <c r="H1425"/>
-      <c r="I1425"/>
-      <c r="AI1425"/>
-    </row>
-    <row r="1426" spans="7:35">
-      <c r="G1426"/>
-      <c r="H1426"/>
-      <c r="I1426"/>
-      <c r="AI1426"/>
-    </row>
-    <row r="1427" spans="7:35">
-      <c r="G1427"/>
-      <c r="H1427"/>
-      <c r="I1427"/>
-      <c r="AI1427"/>
-    </row>
-    <row r="1428" spans="7:35">
-      <c r="G1428"/>
-      <c r="H1428"/>
-      <c r="I1428"/>
-      <c r="AI1428"/>
-    </row>
-    <row r="1429" spans="7:35">
-      <c r="G1429"/>
-      <c r="H1429"/>
-      <c r="I1429"/>
-      <c r="AI1429"/>
-    </row>
-    <row r="1430" spans="7:35">
-      <c r="G1430"/>
-      <c r="H1430"/>
-      <c r="I1430"/>
-      <c r="AI1430"/>
-    </row>
-    <row r="1431" spans="7:35">
-      <c r="G1431"/>
-      <c r="H1431"/>
-      <c r="I1431"/>
-      <c r="AI1431"/>
-    </row>
-    <row r="1432" spans="7:35">
-      <c r="G1432"/>
-      <c r="H1432"/>
-      <c r="I1432"/>
-      <c r="AI1432"/>
-    </row>
-    <row r="1433" spans="7:35">
-      <c r="G1433"/>
-      <c r="H1433"/>
-      <c r="I1433"/>
-      <c r="AI1433"/>
-    </row>
-    <row r="1434" spans="7:35">
-      <c r="G1434"/>
-      <c r="H1434"/>
-      <c r="I1434"/>
-      <c r="AI1434"/>
-    </row>
-    <row r="1435" spans="7:35">
-      <c r="G1435"/>
-      <c r="H1435"/>
-      <c r="I1435"/>
-      <c r="AI1435"/>
-    </row>
-    <row r="1436" spans="7:35">
-      <c r="G1436"/>
-      <c r="H1436"/>
-      <c r="I1436"/>
-      <c r="AI1436"/>
-    </row>
-    <row r="1437" spans="7:35">
-      <c r="G1437"/>
-      <c r="H1437"/>
-      <c r="I1437"/>
-      <c r="AI1437"/>
-    </row>
-    <row r="1438" spans="7:35">
-      <c r="G1438"/>
-      <c r="H1438"/>
-      <c r="I1438"/>
-      <c r="AI1438"/>
-    </row>
-    <row r="1439" spans="7:35">
-      <c r="G1439"/>
-      <c r="H1439"/>
-      <c r="I1439"/>
-      <c r="AI1439"/>
-    </row>
-    <row r="1440" spans="7:35">
-      <c r="G1440"/>
-      <c r="H1440"/>
-      <c r="I1440"/>
-      <c r="AI1440"/>
-    </row>
-    <row r="1441" spans="7:35">
-      <c r="G1441"/>
-      <c r="H1441"/>
-      <c r="I1441"/>
-      <c r="AI1441"/>
-    </row>
-    <row r="1442" spans="7:35">
-      <c r="G1442"/>
-      <c r="H1442"/>
-      <c r="I1442"/>
-      <c r="AI1442"/>
-    </row>
-    <row r="1443" spans="7:35">
-      <c r="G1443"/>
-      <c r="H1443"/>
-      <c r="I1443"/>
-      <c r="AI1443"/>
-    </row>
-    <row r="1444" spans="7:35">
-      <c r="G1444"/>
-      <c r="H1444"/>
-      <c r="I1444"/>
-      <c r="AI1444"/>
-    </row>
-    <row r="1445" spans="7:35">
-      <c r="G1445"/>
-      <c r="H1445"/>
-      <c r="I1445"/>
-      <c r="AI1445"/>
-    </row>
-    <row r="1446" spans="7:35">
-      <c r="G1446"/>
-      <c r="H1446"/>
-      <c r="I1446"/>
-      <c r="AI1446"/>
-    </row>
-    <row r="1447" spans="7:35">
-      <c r="G1447"/>
-      <c r="H1447"/>
-      <c r="I1447"/>
-      <c r="AI1447"/>
-    </row>
-    <row r="1448" spans="7:35">
-      <c r="G1448"/>
-      <c r="H1448"/>
-      <c r="I1448"/>
-      <c r="AI1448"/>
-    </row>
-    <row r="1449" spans="7:35">
-      <c r="G1449"/>
-      <c r="H1449"/>
-      <c r="I1449"/>
-      <c r="AI1449"/>
-    </row>
-    <row r="1450" spans="7:35">
-      <c r="G1450"/>
-      <c r="H1450"/>
-      <c r="I1450"/>
-      <c r="AI1450"/>
-    </row>
-    <row r="1451" spans="7:35">
-      <c r="G1451"/>
-      <c r="H1451"/>
-      <c r="I1451"/>
-      <c r="AI1451"/>
-    </row>
-    <row r="1452" spans="7:35">
-      <c r="G1452"/>
-      <c r="H1452"/>
-      <c r="I1452"/>
-      <c r="AI1452"/>
-    </row>
-    <row r="1453" spans="7:35">
-      <c r="G1453"/>
-      <c r="H1453"/>
-      <c r="I1453"/>
-      <c r="AI1453"/>
-    </row>
-    <row r="1454" spans="7:35">
-      <c r="G1454"/>
-      <c r="H1454"/>
-      <c r="I1454"/>
-      <c r="AI1454"/>
-    </row>
-    <row r="1455" spans="7:35">
-      <c r="G1455"/>
-      <c r="H1455"/>
-      <c r="I1455"/>
-      <c r="AI1455"/>
-    </row>
-    <row r="1456" spans="7:35">
-      <c r="G1456"/>
-      <c r="H1456"/>
-      <c r="I1456"/>
-      <c r="AI1456"/>
-    </row>
-    <row r="1457" spans="7:35">
-      <c r="G1457"/>
-      <c r="H1457"/>
-      <c r="I1457"/>
-      <c r="AI1457"/>
-    </row>
-    <row r="1458" spans="7:35">
-      <c r="G1458"/>
-      <c r="H1458"/>
-      <c r="I1458"/>
-      <c r="AI1458"/>
-    </row>
-    <row r="1459" spans="7:35">
-      <c r="G1459"/>
-      <c r="H1459"/>
-      <c r="I1459"/>
-      <c r="AI1459"/>
-    </row>
-    <row r="1460" spans="7:35">
-      <c r="G1460"/>
-      <c r="H1460"/>
-      <c r="I1460"/>
-      <c r="AI1460"/>
-    </row>
-    <row r="1461" spans="7:35">
-      <c r="G1461"/>
-      <c r="H1461"/>
-      <c r="I1461"/>
-      <c r="AI1461"/>
-    </row>
-    <row r="1462" spans="7:35">
-      <c r="G1462"/>
-      <c r="H1462"/>
-      <c r="I1462"/>
-      <c r="AI1462"/>
-    </row>
-    <row r="1463" spans="7:35">
-      <c r="G1463"/>
-      <c r="H1463"/>
-      <c r="I1463"/>
-      <c r="AI1463"/>
-    </row>
-    <row r="1464" spans="7:35">
-      <c r="G1464"/>
-      <c r="H1464"/>
-      <c r="I1464"/>
-      <c r="AI1464"/>
-    </row>
-    <row r="1465" spans="7:35">
-      <c r="G1465"/>
-      <c r="H1465"/>
-      <c r="I1465"/>
-      <c r="AI1465"/>
-    </row>
-    <row r="1466" spans="7:35">
-      <c r="G1466"/>
-      <c r="H1466"/>
-      <c r="I1466"/>
-      <c r="AI1466"/>
-    </row>
-    <row r="1467" spans="7:35">
-      <c r="G1467"/>
-      <c r="H1467"/>
-      <c r="I1467"/>
-      <c r="AI1467"/>
-    </row>
-    <row r="1468" spans="7:35">
-      <c r="G1468"/>
-      <c r="H1468"/>
-      <c r="I1468"/>
-      <c r="AI1468"/>
-    </row>
-    <row r="1469" spans="7:35">
-      <c r="G1469"/>
-      <c r="H1469"/>
-      <c r="I1469"/>
-      <c r="AI1469"/>
-    </row>
-    <row r="1470" spans="7:35">
-      <c r="G1470"/>
-      <c r="H1470"/>
-      <c r="I1470"/>
-      <c r="AI1470"/>
-    </row>
-    <row r="1471" spans="7:35">
-      <c r="G1471"/>
-      <c r="H1471"/>
-      <c r="I1471"/>
-      <c r="AI1471"/>
-    </row>
-    <row r="1472" spans="7:35">
-      <c r="G1472"/>
-      <c r="H1472"/>
-      <c r="I1472"/>
-      <c r="AI1472"/>
-    </row>
-    <row r="1473" spans="7:35">
-      <c r="G1473"/>
-      <c r="H1473"/>
-      <c r="I1473"/>
-      <c r="AI1473"/>
-    </row>
-    <row r="1474" spans="7:35">
-      <c r="G1474"/>
-      <c r="H1474"/>
-      <c r="I1474"/>
-      <c r="AI1474"/>
-    </row>
-    <row r="1475" spans="7:35">
-      <c r="G1475"/>
-      <c r="H1475"/>
-      <c r="I1475"/>
-      <c r="AI1475"/>
-    </row>
-    <row r="1476" spans="7:35">
-      <c r="G1476"/>
-      <c r="H1476"/>
-      <c r="I1476"/>
-      <c r="AI1476"/>
-    </row>
-    <row r="1477" spans="7:35">
-      <c r="G1477"/>
-      <c r="H1477"/>
-      <c r="I1477"/>
-      <c r="AI1477"/>
-    </row>
-    <row r="1478" spans="7:35">
-      <c r="G1478"/>
-      <c r="H1478"/>
-      <c r="I1478"/>
-      <c r="AI1478"/>
-    </row>
-    <row r="1479" spans="7:35">
-      <c r="G1479"/>
-      <c r="H1479"/>
-      <c r="I1479"/>
-      <c r="AI1479"/>
-    </row>
-    <row r="1480" spans="7:35">
-      <c r="G1480"/>
-      <c r="H1480"/>
-      <c r="I1480"/>
-      <c r="AI1480"/>
-    </row>
-    <row r="1481" spans="7:35">
-      <c r="G1481"/>
-      <c r="H1481"/>
-      <c r="I1481"/>
-      <c r="AI1481"/>
-    </row>
-    <row r="1482" spans="7:35">
-      <c r="G1482"/>
-      <c r="H1482"/>
-      <c r="I1482"/>
-      <c r="AI1482"/>
-    </row>
-    <row r="1483" spans="7:35">
-      <c r="G1483"/>
-      <c r="H1483"/>
-      <c r="I1483"/>
-      <c r="AI1483"/>
-    </row>
-    <row r="1484" spans="7:35">
-      <c r="G1484"/>
-      <c r="H1484"/>
-      <c r="I1484"/>
-      <c r="AI1484"/>
-    </row>
-    <row r="1485" spans="7:35">
-      <c r="G1485"/>
-      <c r="H1485"/>
-      <c r="I1485"/>
-      <c r="AI1485"/>
-    </row>
-    <row r="1486" spans="7:35">
-      <c r="G1486"/>
-      <c r="H1486"/>
-      <c r="I1486"/>
-      <c r="AI1486"/>
-    </row>
-    <row r="1487" spans="7:35">
-      <c r="G1487"/>
-      <c r="H1487"/>
-      <c r="I1487"/>
-      <c r="AI1487"/>
-    </row>
-    <row r="1488" spans="7:35">
-      <c r="G1488"/>
-      <c r="H1488"/>
-      <c r="I1488"/>
-      <c r="AI1488"/>
-    </row>
-    <row r="1489" spans="7:35">
-      <c r="G1489"/>
-      <c r="H1489"/>
-      <c r="I1489"/>
-      <c r="AI1489"/>
-    </row>
-    <row r="1490" spans="7:35">
-      <c r="G1490"/>
-      <c r="H1490"/>
-      <c r="I1490"/>
-      <c r="AI1490"/>
-    </row>
-    <row r="1491" spans="7:35">
-      <c r="G1491"/>
-      <c r="H1491"/>
-      <c r="I1491"/>
-      <c r="AI1491"/>
-    </row>
-    <row r="1492" spans="7:35">
-      <c r="G1492"/>
-      <c r="H1492"/>
-      <c r="I1492"/>
-      <c r="AI1492"/>
-    </row>
-    <row r="1493" spans="7:35">
-      <c r="G1493"/>
-      <c r="H1493"/>
-      <c r="I1493"/>
-      <c r="AI1493"/>
-    </row>
-    <row r="1494" spans="7:35">
-      <c r="G1494"/>
-      <c r="H1494"/>
-      <c r="I1494"/>
-      <c r="AI1494"/>
-    </row>
-    <row r="1495" spans="7:35">
-      <c r="G1495"/>
-      <c r="H1495"/>
-      <c r="I1495"/>
-      <c r="AI1495"/>
-    </row>
-    <row r="1496" spans="7:35">
-      <c r="G1496"/>
-      <c r="H1496"/>
-      <c r="I1496"/>
-      <c r="AI1496"/>
-    </row>
-    <row r="1497" spans="7:35">
-      <c r="G1497"/>
-      <c r="H1497"/>
-      <c r="I1497"/>
-      <c r="AI1497"/>
-    </row>
-    <row r="1498" spans="7:35">
-      <c r="G1498"/>
-      <c r="H1498"/>
-      <c r="I1498"/>
-      <c r="AI1498"/>
-    </row>
-    <row r="1499" spans="7:35">
-      <c r="G1499"/>
-      <c r="H1499"/>
-      <c r="I1499"/>
-      <c r="AI1499"/>
-    </row>
-    <row r="1500" spans="7:35">
-      <c r="G1500"/>
-      <c r="H1500"/>
-      <c r="I1500"/>
-      <c r="AI1500"/>
-    </row>
-    <row r="1501" spans="7:35">
-      <c r="G1501"/>
-      <c r="H1501"/>
-      <c r="I1501"/>
-      <c r="AI1501"/>
-    </row>
-    <row r="1502" spans="7:35">
-      <c r="G1502"/>
-      <c r="H1502"/>
-      <c r="I1502"/>
-      <c r="AI1502"/>
-    </row>
-    <row r="1503" spans="7:35">
-      <c r="G1503"/>
-      <c r="H1503"/>
-      <c r="I1503"/>
-      <c r="AI1503"/>
-    </row>
-    <row r="1504" spans="7:35">
-      <c r="G1504"/>
-      <c r="H1504"/>
-      <c r="I1504"/>
-      <c r="AI1504"/>
-    </row>
-    <row r="1505" spans="7:35">
-      <c r="G1505"/>
-      <c r="H1505"/>
-      <c r="I1505"/>
-      <c r="AI1505"/>
-    </row>
-    <row r="1506" spans="7:35">
-      <c r="G1506"/>
-      <c r="H1506"/>
-      <c r="I1506"/>
-      <c r="AI1506"/>
-    </row>
-    <row r="1507" spans="7:35">
-      <c r="G1507"/>
-      <c r="H1507"/>
-      <c r="I1507"/>
-      <c r="AI1507"/>
-    </row>
-    <row r="1508" spans="7:35">
-      <c r="G1508"/>
-      <c r="H1508"/>
-      <c r="I1508"/>
-      <c r="AI1508"/>
-    </row>
-    <row r="1509" spans="7:35">
-      <c r="G1509"/>
-      <c r="H1509"/>
-      <c r="I1509"/>
-      <c r="AI1509"/>
-    </row>
-    <row r="1510" spans="7:35">
-      <c r="G1510"/>
-      <c r="H1510"/>
-      <c r="I1510"/>
-      <c r="AI1510"/>
-    </row>
-    <row r="1511" spans="7:35">
-      <c r="G1511"/>
-      <c r="H1511"/>
-      <c r="I1511"/>
-      <c r="AI1511"/>
-    </row>
-    <row r="1512" spans="7:35">
-      <c r="G1512"/>
-      <c r="H1512"/>
-      <c r="I1512"/>
-      <c r="AI1512"/>
-    </row>
-    <row r="1513" spans="7:35">
-      <c r="G1513"/>
-      <c r="H1513"/>
-      <c r="I1513"/>
-      <c r="AI1513"/>
-    </row>
-    <row r="1514" spans="7:35">
-      <c r="G1514"/>
-      <c r="H1514"/>
-      <c r="I1514"/>
-      <c r="AI1514"/>
-    </row>
-    <row r="1515" spans="7:35">
-      <c r="G1515"/>
-      <c r="H1515"/>
-      <c r="I1515"/>
-      <c r="AI1515"/>
-    </row>
-    <row r="1516" spans="7:35">
-      <c r="G1516"/>
-      <c r="H1516"/>
-      <c r="I1516"/>
-      <c r="AI1516"/>
-    </row>
-    <row r="1517" spans="7:35">
-      <c r="G1517"/>
-      <c r="H1517"/>
-      <c r="I1517"/>
-      <c r="AI1517"/>
-    </row>
-    <row r="1518" spans="7:35">
-      <c r="G1518"/>
-      <c r="H1518"/>
-      <c r="I1518"/>
-      <c r="AI1518"/>
-    </row>
-    <row r="1519" spans="7:35">
-      <c r="G1519"/>
-      <c r="H1519"/>
-      <c r="I1519"/>
-      <c r="AI1519"/>
-    </row>
-    <row r="1520" spans="7:35">
-      <c r="G1520"/>
-      <c r="H1520"/>
-      <c r="I1520"/>
-      <c r="AI1520"/>
-    </row>
-    <row r="1521" spans="7:35">
-      <c r="G1521"/>
-      <c r="H1521"/>
-      <c r="I1521"/>
-      <c r="AI1521"/>
-    </row>
-    <row r="1522" spans="7:35">
-      <c r="G1522"/>
-      <c r="H1522"/>
-      <c r="I1522"/>
-      <c r="AI1522"/>
-    </row>
-    <row r="1523" spans="7:35">
-      <c r="G1523"/>
-      <c r="H1523"/>
-      <c r="I1523"/>
-      <c r="AI1523"/>
-    </row>
-    <row r="1524" spans="7:35">
-      <c r="G1524"/>
-      <c r="H1524"/>
-      <c r="I1524"/>
-      <c r="AI1524"/>
-    </row>
-    <row r="1525" spans="7:35">
-      <c r="G1525"/>
-      <c r="H1525"/>
-      <c r="I1525"/>
-      <c r="AI1525"/>
-    </row>
-    <row r="1526" spans="7:35">
-      <c r="G1526"/>
-      <c r="H1526"/>
-      <c r="I1526"/>
-      <c r="AI1526"/>
-    </row>
-    <row r="1527" spans="7:35">
-      <c r="G1527"/>
-      <c r="H1527"/>
-      <c r="I1527"/>
-      <c r="AI1527"/>
-    </row>
-    <row r="1528" spans="7:35">
-      <c r="G1528"/>
-      <c r="H1528"/>
-      <c r="I1528"/>
-      <c r="AI1528"/>
-    </row>
-    <row r="1529" spans="7:35">
-      <c r="G1529"/>
-      <c r="H1529"/>
-      <c r="I1529"/>
-      <c r="AI1529"/>
-    </row>
-    <row r="1530" spans="7:35">
-      <c r="G1530"/>
-      <c r="H1530"/>
-      <c r="I1530"/>
-      <c r="AI1530"/>
-    </row>
-    <row r="1531" spans="7:35">
-      <c r="G1531"/>
-      <c r="H1531"/>
-      <c r="I1531"/>
-      <c r="AI1531"/>
-    </row>
-    <row r="1532" spans="7:35">
-      <c r="G1532"/>
-      <c r="H1532"/>
-      <c r="I1532"/>
-      <c r="AI1532"/>
-    </row>
-    <row r="1533" spans="7:35">
-      <c r="G1533"/>
-      <c r="H1533"/>
-      <c r="I1533"/>
-      <c r="AI1533"/>
-    </row>
-    <row r="1534" spans="7:35">
-      <c r="G1534"/>
-      <c r="H1534"/>
-      <c r="I1534"/>
-      <c r="AI1534"/>
-    </row>
-    <row r="1535" spans="7:35">
-      <c r="G1535"/>
-      <c r="H1535"/>
-      <c r="I1535"/>
-      <c r="AI1535"/>
-    </row>
-    <row r="1536" spans="7:35">
-      <c r="G1536"/>
-      <c r="H1536"/>
-      <c r="I1536"/>
-      <c r="AI1536"/>
-    </row>
-    <row r="1537" spans="7:35">
-      <c r="G1537"/>
-      <c r="H1537"/>
-      <c r="I1537"/>
-      <c r="AI1537"/>
-    </row>
-    <row r="1538" spans="7:35">
-      <c r="G1538"/>
-      <c r="H1538"/>
-      <c r="I1538"/>
-      <c r="AI1538"/>
-    </row>
-    <row r="1539" spans="7:35">
-      <c r="G1539"/>
-      <c r="H1539"/>
-      <c r="I1539"/>
-      <c r="AI1539"/>
-    </row>
-    <row r="1540" spans="7:35">
-      <c r="G1540"/>
-      <c r="H1540"/>
-      <c r="I1540"/>
-      <c r="AI1540"/>
-    </row>
-    <row r="1541" spans="7:35">
-      <c r="G1541"/>
-      <c r="H1541"/>
-      <c r="I1541"/>
-      <c r="AI1541"/>
-    </row>
-    <row r="1542" spans="7:35">
-      <c r="G1542"/>
-      <c r="H1542"/>
-      <c r="I1542"/>
-      <c r="AI1542"/>
-    </row>
-    <row r="1543" spans="7:35">
-      <c r="G1543"/>
-      <c r="H1543"/>
-      <c r="I1543"/>
-      <c r="AI1543"/>
-    </row>
-    <row r="1544" spans="7:35">
-      <c r="G1544"/>
-      <c r="H1544"/>
-      <c r="I1544"/>
-      <c r="AI1544"/>
-    </row>
-    <row r="1545" spans="7:35">
-      <c r="G1545"/>
-      <c r="H1545"/>
-      <c r="I1545"/>
-      <c r="AI1545"/>
-    </row>
-    <row r="1546" spans="7:35">
-      <c r="G1546"/>
-      <c r="H1546"/>
-      <c r="I1546"/>
-      <c r="AI1546"/>
-    </row>
-    <row r="1547" spans="7:35">
-      <c r="G1547"/>
-      <c r="H1547"/>
-      <c r="I1547"/>
-      <c r="AI1547"/>
-    </row>
-    <row r="1548" spans="7:35">
-      <c r="G1548"/>
-      <c r="H1548"/>
-      <c r="I1548"/>
-      <c r="AI1548"/>
-    </row>
-    <row r="1549" spans="7:35">
-      <c r="G1549"/>
-      <c r="H1549"/>
-      <c r="I1549"/>
-      <c r="AI1549"/>
-    </row>
-    <row r="1550" spans="7:35">
-      <c r="G1550"/>
-      <c r="H1550"/>
-      <c r="I1550"/>
-      <c r="AI1550"/>
-    </row>
-    <row r="1551" spans="7:35">
-      <c r="G1551"/>
-      <c r="H1551"/>
-      <c r="I1551"/>
-      <c r="AI1551"/>
-    </row>
-    <row r="1552" spans="7:35">
-      <c r="G1552"/>
-      <c r="H1552"/>
-      <c r="I1552"/>
-      <c r="AI1552"/>
-    </row>
-    <row r="1553" spans="7:35">
-      <c r="G1553"/>
-      <c r="H1553"/>
-      <c r="I1553"/>
-      <c r="AI1553"/>
-    </row>
-    <row r="1554" spans="7:35">
-      <c r="G1554"/>
-      <c r="H1554"/>
-      <c r="I1554"/>
-      <c r="AI1554"/>
-    </row>
-    <row r="1555" spans="7:35">
-      <c r="G1555"/>
-      <c r="H1555"/>
-      <c r="I1555"/>
-      <c r="AI1555"/>
-    </row>
-    <row r="1556" spans="7:35">
-      <c r="G1556"/>
-      <c r="H1556"/>
-      <c r="I1556"/>
-      <c r="AI1556"/>
-    </row>
-    <row r="1557" spans="7:35">
-      <c r="G1557"/>
-      <c r="H1557"/>
-      <c r="I1557"/>
-      <c r="AI1557"/>
-    </row>
-    <row r="1558" spans="7:35">
-      <c r="G1558"/>
-      <c r="H1558"/>
-      <c r="I1558"/>
-      <c r="AI1558"/>
-    </row>
-    <row r="1559" spans="7:35">
-      <c r="G1559"/>
-      <c r="H1559"/>
-      <c r="I1559"/>
-      <c r="AI1559"/>
-    </row>
-    <row r="1560" spans="7:35">
-      <c r="G1560"/>
-      <c r="H1560"/>
-      <c r="I1560"/>
-      <c r="AI1560"/>
-    </row>
-    <row r="1561" spans="7:35">
-      <c r="G1561"/>
-      <c r="H1561"/>
-      <c r="I1561"/>
-      <c r="AI1561"/>
-    </row>
-    <row r="1562" spans="7:35">
-      <c r="G1562"/>
-      <c r="H1562"/>
-      <c r="I1562"/>
-      <c r="AI1562"/>
-    </row>
-    <row r="1563" spans="7:35">
-      <c r="G1563"/>
-      <c r="H1563"/>
-      <c r="I1563"/>
-      <c r="AI1563"/>
-    </row>
-    <row r="1564" spans="7:35">
-      <c r="G1564"/>
-      <c r="H1564"/>
-      <c r="I1564"/>
-      <c r="AI1564"/>
-    </row>
-    <row r="1565" spans="7:35">
-      <c r="G1565"/>
-      <c r="H1565"/>
-      <c r="I1565"/>
-      <c r="AI1565"/>
-    </row>
-    <row r="1566" spans="7:35">
-      <c r="G1566"/>
-      <c r="H1566"/>
-      <c r="I1566"/>
-      <c r="AI1566"/>
-    </row>
-    <row r="1567" spans="7:35">
-      <c r="G1567"/>
-      <c r="H1567"/>
-      <c r="I1567"/>
-      <c r="AI1567"/>
-    </row>
-    <row r="1568" spans="7:35">
-      <c r="G1568"/>
-      <c r="H1568"/>
-      <c r="I1568"/>
-      <c r="AI1568"/>
-    </row>
+    <row r="1089" customFormat="1"/>
+    <row r="1090" customFormat="1"/>
+    <row r="1091" customFormat="1"/>
+    <row r="1092" customFormat="1"/>
+    <row r="1093" customFormat="1"/>
+    <row r="1094" customFormat="1"/>
+    <row r="1095" customFormat="1"/>
+    <row r="1096" customFormat="1"/>
+    <row r="1097" customFormat="1"/>
+    <row r="1098" customFormat="1"/>
+    <row r="1099" customFormat="1"/>
+    <row r="1100" customFormat="1"/>
+    <row r="1101" customFormat="1"/>
+    <row r="1102" customFormat="1"/>
+    <row r="1103" customFormat="1"/>
+    <row r="1104" customFormat="1"/>
+    <row r="1105" customFormat="1"/>
+    <row r="1106" customFormat="1"/>
+    <row r="1107" customFormat="1"/>
+    <row r="1108" customFormat="1"/>
+    <row r="1109" customFormat="1"/>
+    <row r="1110" customFormat="1"/>
+    <row r="1111" customFormat="1"/>
+    <row r="1112" customFormat="1"/>
+    <row r="1113" customFormat="1"/>
+    <row r="1114" customFormat="1"/>
+    <row r="1115" customFormat="1"/>
+    <row r="1116" customFormat="1"/>
+    <row r="1117" customFormat="1"/>
+    <row r="1118" customFormat="1"/>
+    <row r="1119" customFormat="1"/>
+    <row r="1120" customFormat="1"/>
+    <row r="1121" customFormat="1"/>
+    <row r="1122" customFormat="1"/>
+    <row r="1123" customFormat="1"/>
+    <row r="1124" customFormat="1"/>
+    <row r="1125" customFormat="1"/>
+    <row r="1126" customFormat="1"/>
+    <row r="1127" customFormat="1"/>
+    <row r="1128" customFormat="1"/>
+    <row r="1129" customFormat="1"/>
+    <row r="1130" customFormat="1"/>
+    <row r="1131" customFormat="1"/>
+    <row r="1132" customFormat="1"/>
+    <row r="1133" customFormat="1"/>
+    <row r="1134" customFormat="1"/>
+    <row r="1135" customFormat="1"/>
+    <row r="1136" customFormat="1"/>
+    <row r="1137" customFormat="1"/>
+    <row r="1138" customFormat="1"/>
+    <row r="1139" customFormat="1"/>
+    <row r="1140" customFormat="1"/>
+    <row r="1141" customFormat="1"/>
+    <row r="1142" customFormat="1"/>
+    <row r="1143" customFormat="1"/>
+    <row r="1144" customFormat="1"/>
+    <row r="1145" customFormat="1"/>
+    <row r="1146" customFormat="1"/>
+    <row r="1147" customFormat="1"/>
+    <row r="1148" customFormat="1"/>
+    <row r="1149" customFormat="1"/>
+    <row r="1150" customFormat="1"/>
+    <row r="1151" customFormat="1"/>
+    <row r="1152" customFormat="1"/>
+    <row r="1153" customFormat="1"/>
+    <row r="1154" customFormat="1"/>
+    <row r="1155" customFormat="1"/>
+    <row r="1156" customFormat="1"/>
+    <row r="1157" customFormat="1"/>
+    <row r="1158" customFormat="1"/>
+    <row r="1159" customFormat="1"/>
+    <row r="1160" customFormat="1"/>
+    <row r="1161" customFormat="1"/>
+    <row r="1162" customFormat="1"/>
+    <row r="1163" customFormat="1"/>
+    <row r="1164" customFormat="1"/>
+    <row r="1165" customFormat="1"/>
+    <row r="1166" customFormat="1"/>
+    <row r="1167" customFormat="1"/>
+    <row r="1168" customFormat="1"/>
+    <row r="1169" customFormat="1"/>
+    <row r="1170" customFormat="1"/>
+    <row r="1171" customFormat="1"/>
+    <row r="1172" customFormat="1"/>
+    <row r="1173" customFormat="1"/>
+    <row r="1174" customFormat="1"/>
+    <row r="1175" customFormat="1"/>
+    <row r="1176" customFormat="1"/>
+    <row r="1177" customFormat="1"/>
+    <row r="1178" customFormat="1"/>
+    <row r="1179" customFormat="1"/>
+    <row r="1180" customFormat="1"/>
+    <row r="1181" customFormat="1"/>
+    <row r="1182" customFormat="1"/>
+    <row r="1183" customFormat="1"/>
+    <row r="1184" customFormat="1"/>
+    <row r="1185" customFormat="1"/>
+    <row r="1186" customFormat="1"/>
+    <row r="1187" customFormat="1"/>
+    <row r="1188" customFormat="1"/>
+    <row r="1189" customFormat="1"/>
+    <row r="1190" customFormat="1"/>
+    <row r="1191" customFormat="1"/>
+    <row r="1192" customFormat="1"/>
+    <row r="1193" customFormat="1"/>
+    <row r="1194" customFormat="1"/>
+    <row r="1195" customFormat="1"/>
+    <row r="1196" customFormat="1"/>
+    <row r="1197" customFormat="1"/>
+    <row r="1198" customFormat="1"/>
+    <row r="1199" customFormat="1"/>
+    <row r="1200" customFormat="1"/>
+    <row r="1201" customFormat="1"/>
+    <row r="1202" customFormat="1"/>
+    <row r="1203" customFormat="1"/>
+    <row r="1204" customFormat="1"/>
+    <row r="1205" customFormat="1"/>
+    <row r="1206" customFormat="1"/>
+    <row r="1207" customFormat="1"/>
+    <row r="1208" customFormat="1"/>
+    <row r="1209" customFormat="1"/>
+    <row r="1210" customFormat="1"/>
+    <row r="1211" customFormat="1"/>
+    <row r="1212" customFormat="1"/>
+    <row r="1213" customFormat="1"/>
+    <row r="1214" customFormat="1"/>
+    <row r="1215" customFormat="1"/>
+    <row r="1216" customFormat="1"/>
+    <row r="1217" customFormat="1"/>
+    <row r="1218" customFormat="1"/>
+    <row r="1219" customFormat="1"/>
+    <row r="1220" customFormat="1"/>
+    <row r="1221" customFormat="1"/>
+    <row r="1222" customFormat="1"/>
+    <row r="1223" customFormat="1"/>
+    <row r="1224" customFormat="1"/>
+    <row r="1225" customFormat="1"/>
+    <row r="1226" customFormat="1"/>
+    <row r="1227" customFormat="1"/>
+    <row r="1228" customFormat="1"/>
+    <row r="1229" customFormat="1"/>
+    <row r="1230" customFormat="1"/>
+    <row r="1231" customFormat="1"/>
+    <row r="1232" customFormat="1"/>
+    <row r="1233" customFormat="1"/>
+    <row r="1234" customFormat="1"/>
+    <row r="1235" customFormat="1"/>
+    <row r="1236" customFormat="1"/>
+    <row r="1237" customFormat="1"/>
+    <row r="1238" customFormat="1"/>
+    <row r="1239" customFormat="1"/>
+    <row r="1240" customFormat="1"/>
+    <row r="1241" customFormat="1"/>
+    <row r="1242" customFormat="1"/>
+    <row r="1243" customFormat="1"/>
+    <row r="1244" customFormat="1"/>
+    <row r="1245" customFormat="1"/>
+    <row r="1246" customFormat="1"/>
+    <row r="1247" customFormat="1"/>
+    <row r="1248" customFormat="1"/>
+    <row r="1249" customFormat="1"/>
+    <row r="1250" customFormat="1"/>
+    <row r="1251" customFormat="1"/>
+    <row r="1252" customFormat="1"/>
+    <row r="1253" customFormat="1"/>
+    <row r="1254" customFormat="1"/>
+    <row r="1255" customFormat="1"/>
+    <row r="1256" customFormat="1"/>
+    <row r="1257" customFormat="1"/>
+    <row r="1258" customFormat="1"/>
+    <row r="1259" customFormat="1"/>
+    <row r="1260" customFormat="1"/>
+    <row r="1261" customFormat="1"/>
+    <row r="1262" customFormat="1"/>
+    <row r="1263" customFormat="1"/>
+    <row r="1264" customFormat="1"/>
+    <row r="1265" customFormat="1"/>
+    <row r="1266" customFormat="1"/>
+    <row r="1267" customFormat="1"/>
+    <row r="1268" customFormat="1"/>
+    <row r="1269" customFormat="1"/>
+    <row r="1270" customFormat="1"/>
+    <row r="1271" customFormat="1"/>
+    <row r="1272" customFormat="1"/>
+    <row r="1273" customFormat="1"/>
+    <row r="1274" customFormat="1"/>
+    <row r="1275" customFormat="1"/>
+    <row r="1276" customFormat="1"/>
+    <row r="1277" customFormat="1"/>
+    <row r="1278" customFormat="1"/>
+    <row r="1279" customFormat="1"/>
+    <row r="1280" customFormat="1"/>
+    <row r="1281" customFormat="1"/>
+    <row r="1282" customFormat="1"/>
+    <row r="1283" customFormat="1"/>
+    <row r="1284" customFormat="1"/>
+    <row r="1285" customFormat="1"/>
+    <row r="1286" customFormat="1"/>
+    <row r="1287" customFormat="1"/>
+    <row r="1288" customFormat="1"/>
+    <row r="1289" customFormat="1"/>
+    <row r="1290" customFormat="1"/>
+    <row r="1291" customFormat="1"/>
+    <row r="1292" customFormat="1"/>
+    <row r="1293" customFormat="1"/>
+    <row r="1294" customFormat="1"/>
+    <row r="1295" customFormat="1"/>
+    <row r="1296" customFormat="1"/>
+    <row r="1297" customFormat="1"/>
+    <row r="1298" customFormat="1"/>
+    <row r="1299" customFormat="1"/>
+    <row r="1300" customFormat="1"/>
+    <row r="1301" customFormat="1"/>
+    <row r="1302" customFormat="1"/>
+    <row r="1303" customFormat="1"/>
+    <row r="1304" customFormat="1"/>
+    <row r="1305" customFormat="1"/>
+    <row r="1306" customFormat="1"/>
+    <row r="1307" customFormat="1"/>
+    <row r="1308" customFormat="1"/>
+    <row r="1309" customFormat="1"/>
+    <row r="1310" customFormat="1"/>
+    <row r="1311" customFormat="1"/>
+    <row r="1312" customFormat="1"/>
+    <row r="1313" customFormat="1"/>
+    <row r="1314" customFormat="1"/>
+    <row r="1315" customFormat="1"/>
+    <row r="1316" customFormat="1"/>
+    <row r="1317" customFormat="1"/>
+    <row r="1318" customFormat="1"/>
+    <row r="1319" customFormat="1"/>
+    <row r="1320" customFormat="1"/>
+    <row r="1321" customFormat="1"/>
+    <row r="1322" customFormat="1"/>
+    <row r="1323" customFormat="1"/>
+    <row r="1324" customFormat="1"/>
+    <row r="1325" customFormat="1"/>
+    <row r="1326" customFormat="1"/>
+    <row r="1327" customFormat="1"/>
+    <row r="1328" customFormat="1"/>
+    <row r="1329" customFormat="1"/>
+    <row r="1330" customFormat="1"/>
+    <row r="1331" customFormat="1"/>
+    <row r="1332" customFormat="1"/>
+    <row r="1333" customFormat="1"/>
+    <row r="1334" customFormat="1"/>
+    <row r="1335" customFormat="1"/>
+    <row r="1336" customFormat="1"/>
+    <row r="1337" customFormat="1"/>
+    <row r="1338" customFormat="1"/>
+    <row r="1339" customFormat="1"/>
+    <row r="1340" customFormat="1"/>
+    <row r="1341" customFormat="1"/>
+    <row r="1342" customFormat="1"/>
+    <row r="1343" customFormat="1"/>
+    <row r="1344" customFormat="1"/>
+    <row r="1345" customFormat="1"/>
+    <row r="1346" customFormat="1"/>
+    <row r="1347" customFormat="1"/>
+    <row r="1348" customFormat="1"/>
+    <row r="1349" customFormat="1"/>
+    <row r="1350" customFormat="1"/>
+    <row r="1351" customFormat="1"/>
+    <row r="1352" customFormat="1"/>
+    <row r="1353" customFormat="1"/>
+    <row r="1354" customFormat="1"/>
+    <row r="1355" customFormat="1"/>
+    <row r="1356" customFormat="1"/>
+    <row r="1357" customFormat="1"/>
+    <row r="1358" customFormat="1"/>
+    <row r="1359" customFormat="1"/>
+    <row r="1360" customFormat="1"/>
+    <row r="1361" customFormat="1"/>
+    <row r="1362" customFormat="1"/>
+    <row r="1363" customFormat="1"/>
+    <row r="1364" customFormat="1"/>
+    <row r="1365" customFormat="1"/>
+    <row r="1366" customFormat="1"/>
+    <row r="1367" customFormat="1"/>
+    <row r="1368" customFormat="1"/>
+    <row r="1369" customFormat="1"/>
+    <row r="1370" customFormat="1"/>
+    <row r="1371" customFormat="1"/>
+    <row r="1372" customFormat="1"/>
+    <row r="1373" customFormat="1"/>
+    <row r="1374" customFormat="1"/>
+    <row r="1375" customFormat="1"/>
+    <row r="1376" customFormat="1"/>
+    <row r="1377" customFormat="1"/>
+    <row r="1378" customFormat="1"/>
+    <row r="1379" customFormat="1"/>
+    <row r="1380" customFormat="1"/>
+    <row r="1381" customFormat="1"/>
+    <row r="1382" customFormat="1"/>
+    <row r="1383" customFormat="1"/>
+    <row r="1384" customFormat="1"/>
+    <row r="1385" customFormat="1"/>
+    <row r="1386" customFormat="1"/>
+    <row r="1387" customFormat="1"/>
+    <row r="1388" customFormat="1"/>
+    <row r="1389" customFormat="1"/>
+    <row r="1390" customFormat="1"/>
+    <row r="1391" customFormat="1"/>
+    <row r="1392" customFormat="1"/>
+    <row r="1393" customFormat="1"/>
+    <row r="1394" customFormat="1"/>
+    <row r="1395" customFormat="1"/>
+    <row r="1396" customFormat="1"/>
+    <row r="1397" customFormat="1"/>
+    <row r="1398" customFormat="1"/>
+    <row r="1399" customFormat="1"/>
+    <row r="1400" customFormat="1"/>
+    <row r="1401" customFormat="1"/>
+    <row r="1402" customFormat="1"/>
+    <row r="1403" customFormat="1"/>
+    <row r="1404" customFormat="1"/>
+    <row r="1405" customFormat="1"/>
+    <row r="1406" customFormat="1"/>
+    <row r="1407" customFormat="1"/>
+    <row r="1408" customFormat="1"/>
+    <row r="1409" customFormat="1"/>
+    <row r="1410" customFormat="1"/>
+    <row r="1411" customFormat="1"/>
+    <row r="1412" customFormat="1"/>
+    <row r="1413" customFormat="1"/>
+    <row r="1414" customFormat="1"/>
+    <row r="1415" customFormat="1"/>
+    <row r="1416" customFormat="1"/>
+    <row r="1417" customFormat="1"/>
+    <row r="1418" customFormat="1"/>
+    <row r="1419" customFormat="1"/>
+    <row r="1420" customFormat="1"/>
+    <row r="1421" customFormat="1"/>
+    <row r="1422" customFormat="1"/>
+    <row r="1423" customFormat="1"/>
+    <row r="1424" customFormat="1"/>
+    <row r="1425" customFormat="1"/>
+    <row r="1426" customFormat="1"/>
+    <row r="1427" customFormat="1"/>
+    <row r="1428" customFormat="1"/>
+    <row r="1429" customFormat="1"/>
+    <row r="1430" customFormat="1"/>
+    <row r="1431" customFormat="1"/>
+    <row r="1432" customFormat="1"/>
+    <row r="1433" customFormat="1"/>
+    <row r="1434" customFormat="1"/>
+    <row r="1435" customFormat="1"/>
+    <row r="1436" customFormat="1"/>
+    <row r="1437" customFormat="1"/>
+    <row r="1438" customFormat="1"/>
+    <row r="1439" customFormat="1"/>
+    <row r="1440" customFormat="1"/>
+    <row r="1441" customFormat="1"/>
+    <row r="1442" customFormat="1"/>
+    <row r="1443" customFormat="1"/>
+    <row r="1444" customFormat="1"/>
+    <row r="1445" customFormat="1"/>
+    <row r="1446" customFormat="1"/>
+    <row r="1447" customFormat="1"/>
+    <row r="1448" customFormat="1"/>
+    <row r="1449" customFormat="1"/>
+    <row r="1450" customFormat="1"/>
+    <row r="1451" customFormat="1"/>
+    <row r="1452" customFormat="1"/>
+    <row r="1453" customFormat="1"/>
+    <row r="1454" customFormat="1"/>
+    <row r="1455" customFormat="1"/>
+    <row r="1456" customFormat="1"/>
+    <row r="1457" customFormat="1"/>
+    <row r="1458" customFormat="1"/>
+    <row r="1459" customFormat="1"/>
+    <row r="1460" customFormat="1"/>
+    <row r="1461" customFormat="1"/>
+    <row r="1462" customFormat="1"/>
+    <row r="1463" customFormat="1"/>
+    <row r="1464" customFormat="1"/>
+    <row r="1465" customFormat="1"/>
+    <row r="1466" customFormat="1"/>
+    <row r="1467" customFormat="1"/>
+    <row r="1468" customFormat="1"/>
+    <row r="1469" customFormat="1"/>
+    <row r="1470" customFormat="1"/>
+    <row r="1471" customFormat="1"/>
+    <row r="1472" customFormat="1"/>
+    <row r="1473" customFormat="1"/>
+    <row r="1474" customFormat="1"/>
+    <row r="1475" customFormat="1"/>
+    <row r="1476" customFormat="1"/>
+    <row r="1477" customFormat="1"/>
+    <row r="1478" customFormat="1"/>
+    <row r="1479" customFormat="1"/>
+    <row r="1480" customFormat="1"/>
+    <row r="1481" customFormat="1"/>
+    <row r="1482" customFormat="1"/>
+    <row r="1483" customFormat="1"/>
+    <row r="1484" customFormat="1"/>
+    <row r="1485" customFormat="1"/>
+    <row r="1486" customFormat="1"/>
+    <row r="1487" customFormat="1"/>
+    <row r="1488" customFormat="1"/>
+    <row r="1489" customFormat="1"/>
+    <row r="1490" customFormat="1"/>
+    <row r="1491" customFormat="1"/>
+    <row r="1492" customFormat="1"/>
+    <row r="1493" customFormat="1"/>
+    <row r="1494" customFormat="1"/>
+    <row r="1495" customFormat="1"/>
+    <row r="1496" customFormat="1"/>
+    <row r="1497" customFormat="1"/>
+    <row r="1498" customFormat="1"/>
+    <row r="1499" customFormat="1"/>
+    <row r="1500" customFormat="1"/>
+    <row r="1501" customFormat="1"/>
+    <row r="1502" customFormat="1"/>
+    <row r="1503" customFormat="1"/>
+    <row r="1504" customFormat="1"/>
+    <row r="1505" customFormat="1"/>
+    <row r="1506" customFormat="1"/>
+    <row r="1507" customFormat="1"/>
+    <row r="1508" customFormat="1"/>
+    <row r="1509" customFormat="1"/>
+    <row r="1510" customFormat="1"/>
+    <row r="1511" customFormat="1"/>
+    <row r="1512" customFormat="1"/>
+    <row r="1513" customFormat="1"/>
+    <row r="1514" customFormat="1"/>
+    <row r="1515" customFormat="1"/>
+    <row r="1516" customFormat="1"/>
+    <row r="1517" customFormat="1"/>
+    <row r="1518" customFormat="1"/>
+    <row r="1519" customFormat="1"/>
+    <row r="1520" customFormat="1"/>
+    <row r="1521" customFormat="1"/>
+    <row r="1522" customFormat="1"/>
+    <row r="1523" customFormat="1"/>
+    <row r="1524" customFormat="1"/>
+    <row r="1525" customFormat="1"/>
+    <row r="1526" customFormat="1"/>
+    <row r="1527" customFormat="1"/>
+    <row r="1528" customFormat="1"/>
+    <row r="1529" customFormat="1"/>
+    <row r="1530" customFormat="1"/>
+    <row r="1531" customFormat="1"/>
+    <row r="1532" customFormat="1"/>
+    <row r="1533" customFormat="1"/>
+    <row r="1534" customFormat="1"/>
+    <row r="1535" customFormat="1"/>
+    <row r="1536" customFormat="1"/>
+    <row r="1537" customFormat="1"/>
+    <row r="1538" customFormat="1"/>
+    <row r="1539" customFormat="1"/>
+    <row r="1540" customFormat="1"/>
+    <row r="1541" customFormat="1"/>
+    <row r="1542" customFormat="1"/>
+    <row r="1543" customFormat="1"/>
+    <row r="1544" customFormat="1"/>
+    <row r="1545" customFormat="1"/>
+    <row r="1546" customFormat="1"/>
+    <row r="1547" customFormat="1"/>
+    <row r="1548" customFormat="1"/>
+    <row r="1549" customFormat="1"/>
+    <row r="1550" customFormat="1"/>
+    <row r="1551" customFormat="1"/>
+    <row r="1552" customFormat="1"/>
+    <row r="1553" customFormat="1"/>
+    <row r="1554" customFormat="1"/>
+    <row r="1555" customFormat="1"/>
+    <row r="1556" customFormat="1"/>
+    <row r="1557" customFormat="1"/>
+    <row r="1558" customFormat="1"/>
+    <row r="1559" customFormat="1"/>
+    <row r="1560" customFormat="1"/>
+    <row r="1561" customFormat="1"/>
+    <row r="1562" customFormat="1"/>
+    <row r="1563" customFormat="1"/>
+    <row r="1564" customFormat="1"/>
+    <row r="1565" customFormat="1"/>
+    <row r="1566" customFormat="1"/>
+    <row r="1567" customFormat="1"/>
+    <row r="1568" customFormat="1"/>
     <row r="1569" spans="7:35">
       <c r="G1569"/>
       <c r="H1569"/>
@@ -72401,7 +68696,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
@@ -74156,18 +70451,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="47" t="s">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -74225,7 +70520,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="E7" s="46" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -74285,5 +70580,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>